--- a/Code/Results/Cases/Case_6_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_42/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.97573952108549</v>
+        <v>13.54885567310213</v>
       </c>
       <c r="C2">
-        <v>10.32331985682684</v>
+        <v>6.766372588563814</v>
       </c>
       <c r="D2">
-        <v>2.43671030598579</v>
+        <v>4.974969799319117</v>
       </c>
       <c r="E2">
-        <v>6.297303274043744</v>
+        <v>7.721573553427108</v>
       </c>
       <c r="F2">
-        <v>35.79462204786446</v>
+        <v>25.82636010150799</v>
       </c>
       <c r="G2">
-        <v>2.138582554536537</v>
+        <v>2.129433066273291</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.973474375058841</v>
+        <v>6.163449590458218</v>
       </c>
       <c r="K2">
-        <v>16.55387853156561</v>
+        <v>10.28628140263852</v>
       </c>
       <c r="L2">
-        <v>6.574407106068053</v>
+        <v>6.305410353335475</v>
       </c>
       <c r="M2">
-        <v>13.31008428266686</v>
+        <v>10.18847180586648</v>
       </c>
       <c r="N2">
-        <v>15.17437985499114</v>
+        <v>14.43493965730671</v>
       </c>
       <c r="O2">
-        <v>27.16689242572336</v>
+        <v>19.50804862556319</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.84282779760086</v>
+        <v>12.79902368536868</v>
       </c>
       <c r="C3">
-        <v>9.633524669212781</v>
+        <v>6.69340980059762</v>
       </c>
       <c r="D3">
-        <v>2.402013372603041</v>
+        <v>4.842282802440677</v>
       </c>
       <c r="E3">
-        <v>6.31837600179518</v>
+        <v>7.72890648093742</v>
       </c>
       <c r="F3">
-        <v>35.17430643914992</v>
+        <v>25.73039851518747</v>
       </c>
       <c r="G3">
-        <v>2.147246676158284</v>
+        <v>2.134009509463517</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.01474492651797</v>
+        <v>6.207176365987645</v>
       </c>
       <c r="K3">
-        <v>15.65508625788536</v>
+        <v>9.637930740645109</v>
       </c>
       <c r="L3">
-        <v>6.514853527839063</v>
+        <v>6.245821768361519</v>
       </c>
       <c r="M3">
-        <v>12.9004566712352</v>
+        <v>9.921720607719561</v>
       </c>
       <c r="N3">
-        <v>15.41073970447913</v>
+        <v>14.63316794122868</v>
       </c>
       <c r="O3">
-        <v>26.77612791200135</v>
+        <v>19.54864419140517</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.1271211689541</v>
+        <v>12.31999498546552</v>
       </c>
       <c r="C4">
-        <v>9.187648261281753</v>
+        <v>6.648292452761038</v>
       </c>
       <c r="D4">
-        <v>2.380992609578642</v>
+        <v>4.760628634503237</v>
       </c>
       <c r="E4">
-        <v>6.332211323078868</v>
+        <v>7.735956294219304</v>
       </c>
       <c r="F4">
-        <v>34.8172356983914</v>
+        <v>25.68768663616872</v>
       </c>
       <c r="G4">
-        <v>2.152713210134091</v>
+        <v>2.136914085031091</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.040762129274194</v>
+        <v>6.23500019394436</v>
       </c>
       <c r="K4">
-        <v>15.08710071876657</v>
+        <v>9.217173343071092</v>
       </c>
       <c r="L4">
-        <v>6.48077182277255</v>
+        <v>6.210936986581421</v>
       </c>
       <c r="M4">
-        <v>12.65005421218862</v>
+        <v>9.757825742461382</v>
       </c>
       <c r="N4">
-        <v>15.55931772895593</v>
+        <v>14.7577941238675</v>
       </c>
       <c r="O4">
-        <v>26.55547614453171</v>
+        <v>19.58528893301172</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.83072609025373</v>
+        <v>12.12029823370377</v>
       </c>
       <c r="C5">
-        <v>9.000287037989908</v>
+        <v>6.629832866612564</v>
       </c>
       <c r="D5">
-        <v>2.372487164884918</v>
+        <v>4.727354887980702</v>
       </c>
       <c r="E5">
-        <v>6.338072270438158</v>
+        <v>7.739460982794492</v>
       </c>
       <c r="F5">
-        <v>34.67764544430532</v>
+        <v>25.6742614118169</v>
       </c>
       <c r="G5">
-        <v>2.154979248567036</v>
+        <v>2.138121940562534</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.051540116572378</v>
+        <v>6.246586471655257</v>
       </c>
       <c r="K5">
-        <v>14.85183380100417</v>
+        <v>9.040011615437484</v>
       </c>
       <c r="L5">
-        <v>6.467505128597089</v>
+        <v>6.197156502459729</v>
       </c>
       <c r="M5">
-        <v>12.54841546140367</v>
+        <v>9.691101580164771</v>
       </c>
       <c r="N5">
-        <v>15.62075250031331</v>
+        <v>14.80933175133739</v>
       </c>
       <c r="O5">
-        <v>26.47030523411691</v>
+        <v>19.60307829849892</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.78123420310547</v>
+        <v>12.08687414913765</v>
       </c>
       <c r="C6">
-        <v>8.968832622268302</v>
+        <v>6.626763382862596</v>
       </c>
       <c r="D6">
-        <v>2.371078217339093</v>
+        <v>4.72183128620277</v>
       </c>
       <c r="E6">
-        <v>6.339058873834989</v>
+        <v>7.740080838845802</v>
       </c>
       <c r="F6">
-        <v>34.6548218829065</v>
+        <v>25.6722696716121</v>
       </c>
       <c r="G6">
-        <v>2.155357882432781</v>
+        <v>2.138323978848629</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.05334056563833</v>
+        <v>6.248525407353098</v>
       </c>
       <c r="K6">
-        <v>14.81254615226762</v>
+        <v>9.010249955013949</v>
       </c>
       <c r="L6">
-        <v>6.465339669289135</v>
+        <v>6.194894752057711</v>
       </c>
       <c r="M6">
-        <v>12.53156647132805</v>
+        <v>9.680028717838486</v>
       </c>
       <c r="N6">
-        <v>15.63100791226397</v>
+        <v>14.81793545948412</v>
       </c>
       <c r="O6">
-        <v>26.45644621300304</v>
+        <v>19.60620209706223</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.12314260411027</v>
+        <v>12.31731969161983</v>
       </c>
       <c r="C7">
-        <v>9.185144426838537</v>
+        <v>6.648043791444492</v>
       </c>
       <c r="D7">
-        <v>2.380877669705454</v>
+        <v>4.76017982524317</v>
       </c>
       <c r="E7">
-        <v>6.332289466268969</v>
+        <v>7.736001012953568</v>
       </c>
       <c r="F7">
-        <v>34.815329267002</v>
+        <v>25.68748959291527</v>
       </c>
       <c r="G7">
-        <v>2.152743613414689</v>
+        <v>2.136930275987381</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.040906766181915</v>
+        <v>6.235155443669478</v>
       </c>
       <c r="K7">
-        <v>15.08394288140352</v>
+        <v>9.214807150184495</v>
       </c>
       <c r="L7">
-        <v>6.480590389711415</v>
+        <v>6.210749366529172</v>
       </c>
       <c r="M7">
-        <v>12.64868167910806</v>
+        <v>9.756925492829879</v>
       </c>
       <c r="N7">
-        <v>15.56014263788825</v>
+        <v>14.75848611126722</v>
       </c>
       <c r="O7">
-        <v>26.55430842169532</v>
+        <v>19.58551740025531</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.58945003334843</v>
+        <v>13.29428543950706</v>
       </c>
       <c r="C8">
-        <v>10.09008544325883</v>
+        <v>6.741284548489164</v>
       </c>
       <c r="D8">
-        <v>2.424681337587029</v>
+        <v>4.929285134077385</v>
       </c>
       <c r="E8">
-        <v>6.304381455720081</v>
+        <v>7.723568002014004</v>
       </c>
       <c r="F8">
-        <v>35.57575914907556</v>
+        <v>25.78985229715327</v>
       </c>
       <c r="G8">
-        <v>2.14154041368337</v>
+        <v>2.130991645904869</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.987567407759999</v>
+        <v>6.178325703421879</v>
       </c>
       <c r="K8">
-        <v>16.24745275135002</v>
+        <v>10.06743259353985</v>
       </c>
       <c r="L8">
-        <v>6.55335580654944</v>
+        <v>6.284515279974729</v>
       </c>
       <c r="M8">
-        <v>13.16868526367846</v>
+        <v>10.09657226059235</v>
       </c>
       <c r="N8">
-        <v>15.25517232202614</v>
+        <v>14.50269576185734</v>
       </c>
       <c r="O8">
-        <v>27.02809673609344</v>
+        <v>19.51955902134274</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.29495124525809</v>
+        <v>15.05557736193352</v>
       </c>
       <c r="C9">
-        <v>11.68983190170077</v>
+        <v>6.921359046387233</v>
       </c>
       <c r="D9">
-        <v>2.513362450438041</v>
+        <v>5.257486993031955</v>
       </c>
       <c r="E9">
-        <v>6.256898706634577</v>
+        <v>7.719789989842532</v>
       </c>
       <c r="F9">
-        <v>37.25848920202509</v>
+        <v>26.12323209566251</v>
       </c>
       <c r="G9">
-        <v>2.120662933030538</v>
+        <v>2.120076694283815</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.888071618632007</v>
+        <v>6.074501942674109</v>
       </c>
       <c r="K9">
-        <v>18.39298036267784</v>
+        <v>11.559930703357</v>
       </c>
       <c r="L9">
-        <v>6.715879516866935</v>
+        <v>6.442339447792368</v>
       </c>
       <c r="M9">
-        <v>14.19233518983727</v>
+        <v>10.75795694007262</v>
       </c>
       <c r="N9">
-        <v>14.68360696022629</v>
+        <v>14.02330632638643</v>
       </c>
       <c r="O9">
-        <v>28.11440132910012</v>
+        <v>19.48728966562904</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.16927318573114</v>
+        <v>16.24860018530586</v>
       </c>
       <c r="C10">
-        <v>12.76241769149032</v>
+        <v>7.051669721526174</v>
       </c>
       <c r="D10">
-        <v>2.581056475144777</v>
+        <v>5.49411696144934</v>
       </c>
       <c r="E10">
-        <v>6.226643012126551</v>
+        <v>7.730111849602568</v>
       </c>
       <c r="F10">
-        <v>38.61510029930181</v>
+        <v>26.45419902779508</v>
       </c>
       <c r="G10">
-        <v>2.105880675884741</v>
+        <v>2.112473554935741</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.817679844967626</v>
+        <v>6.002694128064777</v>
       </c>
       <c r="K10">
-        <v>19.89537570828787</v>
+        <v>12.54795796243121</v>
       </c>
       <c r="L10">
-        <v>6.847547120397582</v>
+        <v>6.565834606829888</v>
       </c>
       <c r="M10">
-        <v>14.94116098616409</v>
+        <v>11.23632741705948</v>
       </c>
       <c r="N10">
-        <v>14.27856337625852</v>
+        <v>13.68331806900826</v>
       </c>
       <c r="O10">
-        <v>29.01396955463781</v>
+        <v>19.52841425377229</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.99631652037579</v>
+        <v>16.76849377542824</v>
       </c>
       <c r="C11">
-        <v>13.22902812603099</v>
+        <v>7.110464074165941</v>
       </c>
       <c r="D11">
-        <v>2.612622450622872</v>
+        <v>5.600339433374596</v>
       </c>
       <c r="E11">
-        <v>6.2139424300804</v>
+        <v>7.737766682919569</v>
       </c>
       <c r="F11">
-        <v>39.25921746402183</v>
+        <v>26.62444352145377</v>
       </c>
       <c r="G11">
-        <v>2.099249858530032</v>
+        <v>2.109098226730037</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.786147376782034</v>
+        <v>5.97095883950712</v>
       </c>
       <c r="K11">
-        <v>20.64944792101405</v>
+        <v>12.9741626833376</v>
       </c>
       <c r="L11">
-        <v>6.910151557275817</v>
+        <v>6.623543165299553</v>
       </c>
       <c r="M11">
-        <v>15.28020961878166</v>
+        <v>11.45143706479979</v>
       </c>
       <c r="N11">
-        <v>14.09726969305971</v>
+        <v>13.53099390773904</v>
       </c>
       <c r="O11">
-        <v>29.44645341197434</v>
+        <v>19.56242353618358</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.30579109172026</v>
+        <v>16.96203301287114</v>
       </c>
       <c r="C12">
-        <v>13.40274621271771</v>
+        <v>7.132654124393553</v>
       </c>
       <c r="D12">
-        <v>2.624707602207899</v>
+        <v>5.640325645600958</v>
       </c>
       <c r="E12">
-        <v>6.209291776542466</v>
+        <v>7.7411002856796</v>
       </c>
       <c r="F12">
-        <v>39.50708944144305</v>
+        <v>26.69181529876</v>
       </c>
       <c r="G12">
-        <v>2.096749955355586</v>
+        <v>2.107831480378564</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.774268401987563</v>
+        <v>5.959072087446515</v>
       </c>
       <c r="K12">
-        <v>20.93014496616843</v>
+        <v>13.13223864141312</v>
       </c>
       <c r="L12">
-        <v>6.934251781125153</v>
+        <v>6.645606288574771</v>
       </c>
       <c r="M12">
-        <v>15.40831403338716</v>
+        <v>11.53246934535599</v>
       </c>
       <c r="N12">
-        <v>14.02902510109637</v>
+        <v>13.47362241359557</v>
       </c>
       <c r="O12">
-        <v>29.61367481324607</v>
+        <v>19.5776029439038</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.23930515847884</v>
+        <v>16.92049976619308</v>
       </c>
       <c r="C13">
-        <v>13.36546383055485</v>
+        <v>7.127878459299941</v>
       </c>
       <c r="D13">
-        <v>2.622098625659932</v>
+        <v>5.631724978396329</v>
       </c>
       <c r="E13">
-        <v>6.210286211547915</v>
+        <v>7.740362844284422</v>
       </c>
       <c r="F13">
-        <v>39.45352826193107</v>
+        <v>26.67717531723035</v>
       </c>
       <c r="G13">
-        <v>2.097287904350104</v>
+        <v>2.108103798544514</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.776824153969594</v>
+        <v>5.961626348895197</v>
       </c>
       <c r="K13">
-        <v>20.86990555950752</v>
+        <v>13.09834131160559</v>
       </c>
       <c r="L13">
-        <v>6.929043801608767</v>
+        <v>6.640845410382693</v>
       </c>
       <c r="M13">
-        <v>15.38073789181047</v>
+        <v>11.51503746242346</v>
       </c>
       <c r="N13">
-        <v>14.04370495651155</v>
+        <v>13.48596501556395</v>
       </c>
       <c r="O13">
-        <v>29.57750552276466</v>
+        <v>19.57422985541319</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.02185152174853</v>
+        <v>16.7844834038774</v>
       </c>
       <c r="C14">
-        <v>13.24337914954495</v>
+        <v>7.112291171073995</v>
       </c>
       <c r="D14">
-        <v>2.613613932771777</v>
+        <v>5.603634071336004</v>
       </c>
       <c r="E14">
-        <v>6.213556598455975</v>
+        <v>7.738032171180337</v>
       </c>
       <c r="F14">
-        <v>39.27953018689328</v>
+        <v>26.62992763841328</v>
       </c>
       <c r="G14">
-        <v>2.099043983440427</v>
+        <v>2.108993785320419</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.78516890228679</v>
+        <v>5.969978307606906</v>
       </c>
       <c r="K14">
-        <v>20.67263754380078</v>
+        <v>12.98723403963077</v>
       </c>
       <c r="L14">
-        <v>6.91212638907993</v>
+        <v>6.62535415641992</v>
       </c>
       <c r="M14">
-        <v>15.2907548401313</v>
+        <v>11.45811250680007</v>
       </c>
       <c r="N14">
-        <v>14.09164710601939</v>
+        <v>13.52626785367607</v>
       </c>
       <c r="O14">
-        <v>29.4601410590298</v>
+        <v>19.56362566706794</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.88817177655272</v>
+        <v>16.70073412674494</v>
       </c>
       <c r="C15">
-        <v>13.16821380108951</v>
+        <v>7.102733736798907</v>
       </c>
       <c r="D15">
-        <v>2.608434642464826</v>
+        <v>5.586395658094694</v>
       </c>
       <c r="E15">
-        <v>6.215580674982994</v>
+        <v>7.736661478594358</v>
       </c>
       <c r="F15">
-        <v>39.17346952471082</v>
+        <v>26.60136732901019</v>
       </c>
       <c r="G15">
-        <v>2.100120994563713</v>
+        <v>2.109540397242711</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.79028806562078</v>
+        <v>5.975111052903329</v>
       </c>
       <c r="K15">
-        <v>20.55117704862234</v>
+        <v>12.91874626249354</v>
       </c>
       <c r="L15">
-        <v>6.901815336024778</v>
+        <v>6.615892391185278</v>
       </c>
       <c r="M15">
-        <v>15.23559899651908</v>
+        <v>11.42318715609792</v>
       </c>
       <c r="N15">
-        <v>14.12106558365652</v>
+        <v>13.55099413125523</v>
       </c>
       <c r="O15">
-        <v>29.38870437431625</v>
+        <v>19.55743291633901</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.11470553806131</v>
+        <v>16.21415991553734</v>
       </c>
       <c r="C16">
-        <v>12.73150201120907</v>
+        <v>7.047817230565638</v>
       </c>
       <c r="D16">
-        <v>2.579010813041255</v>
+        <v>5.487143523783414</v>
       </c>
       <c r="E16">
-        <v>6.227494900083848</v>
+        <v>7.729671935364733</v>
       </c>
       <c r="F16">
-        <v>38.57355505291349</v>
+        <v>26.44347563795222</v>
       </c>
       <c r="G16">
-        <v>2.106315698457031</v>
+        <v>2.112695770127551</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.819749685599215</v>
+        <v>6.004786565429185</v>
       </c>
       <c r="K16">
-        <v>19.84540896249102</v>
+        <v>12.51963865188214</v>
       </c>
       <c r="L16">
-        <v>6.843510573118662</v>
+        <v>6.562093160033104</v>
       </c>
       <c r="M16">
-        <v>14.91896603919934</v>
+        <v>11.22221340025217</v>
       </c>
       <c r="N16">
-        <v>14.29046933589891</v>
+        <v>13.6933176829333</v>
       </c>
       <c r="O16">
-        <v>28.98618250667485</v>
+        <v>19.52650815965549</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.6336199093853</v>
+        <v>15.90977549152965</v>
       </c>
       <c r="C17">
-        <v>12.45819412088299</v>
+        <v>7.014000293063302</v>
       </c>
       <c r="D17">
-        <v>2.561171888189165</v>
+        <v>5.425866510209116</v>
       </c>
       <c r="E17">
-        <v>6.23508006664717</v>
+        <v>7.726148674488717</v>
       </c>
       <c r="F17">
-        <v>38.21248929923738</v>
+        <v>26.3517097838313</v>
       </c>
       <c r="G17">
-        <v>2.110138291359514</v>
+        <v>2.114652446767445</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.8379427833931</v>
+        <v>6.023227678067593</v>
       </c>
       <c r="K17">
-        <v>19.45415811351073</v>
+        <v>12.26886024601493</v>
       </c>
       <c r="L17">
-        <v>6.808438530597425</v>
+        <v>6.529473917428022</v>
       </c>
       <c r="M17">
-        <v>14.72426778347139</v>
+        <v>11.09823284240462</v>
       </c>
       <c r="N17">
-        <v>14.39513817374535</v>
+        <v>13.78120948282043</v>
       </c>
       <c r="O17">
-        <v>28.74527795906144</v>
+        <v>19.51152735540801</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.35450195019467</v>
+        <v>15.73255573779712</v>
       </c>
       <c r="C18">
-        <v>12.29898268884918</v>
+        <v>6.994504299526104</v>
       </c>
       <c r="D18">
-        <v>2.550982642835676</v>
+        <v>5.39048956406403</v>
       </c>
       <c r="E18">
-        <v>6.239542491382156</v>
+        <v>7.724400179372844</v>
       </c>
       <c r="F18">
-        <v>38.00734854188836</v>
+        <v>26.30077738261708</v>
       </c>
       <c r="G18">
-        <v>2.112345924394707</v>
+        <v>2.115785759430657</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.848453568047577</v>
+        <v>6.033922286797233</v>
       </c>
       <c r="K18">
-        <v>19.23291514508173</v>
+        <v>12.12242865459859</v>
       </c>
       <c r="L18">
-        <v>6.788520643652936</v>
+        <v>6.510856795975241</v>
       </c>
       <c r="M18">
-        <v>14.61213462915854</v>
+        <v>11.02669032805874</v>
       </c>
       <c r="N18">
-        <v>14.45562082829384</v>
+        <v>13.83198423607231</v>
       </c>
       <c r="O18">
-        <v>28.6088992742002</v>
+        <v>19.50434501957442</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.25958500153947</v>
+        <v>15.67218548550696</v>
       </c>
       <c r="C19">
-        <v>12.2447283439266</v>
+        <v>6.987895639699429</v>
       </c>
       <c r="D19">
-        <v>2.547544381164939</v>
+        <v>5.378489938476941</v>
       </c>
       <c r="E19">
-        <v>6.241070338185845</v>
+        <v>7.723855630271609</v>
       </c>
       <c r="F19">
-        <v>37.93832465369105</v>
+        <v>26.28384778952466</v>
       </c>
       <c r="G19">
-        <v>2.11309500343172</v>
+        <v>2.116170850647911</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.852020593593865</v>
+        <v>6.037558464207143</v>
       </c>
       <c r="K19">
-        <v>19.15767730611812</v>
+        <v>12.07247249410954</v>
       </c>
       <c r="L19">
-        <v>6.781820421283437</v>
+        <v>6.504578495410536</v>
       </c>
       <c r="M19">
-        <v>14.57414486572922</v>
+        <v>11.0024294801331</v>
       </c>
       <c r="N19">
-        <v>14.47614788061351</v>
+        <v>13.84921453981727</v>
       </c>
       <c r="O19">
-        <v>28.56309577220253</v>
+        <v>19.50215647428781</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.68508208400257</v>
+        <v>15.94240025469174</v>
       </c>
       <c r="C20">
-        <v>12.48749583466419</v>
+        <v>7.017604894772951</v>
       </c>
       <c r="D20">
-        <v>2.563063357344314</v>
+        <v>5.432403470874558</v>
       </c>
       <c r="E20">
-        <v>6.234262260477172</v>
+        <v>7.726494893065539</v>
       </c>
       <c r="F20">
-        <v>38.25066252441792</v>
+        <v>26.36128651792599</v>
       </c>
       <c r="G20">
-        <v>2.10973045742797</v>
+        <v>2.114443343280619</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.83600133485379</v>
+        <v>6.021255528462471</v>
       </c>
       <c r="K20">
-        <v>19.49494875979645</v>
+        <v>12.29578256834031</v>
       </c>
       <c r="L20">
-        <v>6.812145632356241</v>
+        <v>6.532931397101923</v>
       </c>
       <c r="M20">
-        <v>14.74500951091152</v>
+        <v>11.11145530697577</v>
       </c>
       <c r="N20">
-        <v>14.38396716747489</v>
+        <v>13.77183048690642</v>
       </c>
       <c r="O20">
-        <v>28.77069598489229</v>
+        <v>19.51297292312096</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.08582359832183</v>
+        <v>16.8245254976649</v>
       </c>
       <c r="C21">
-        <v>13.27931843484928</v>
+        <v>7.116871578582069</v>
       </c>
       <c r="D21">
-        <v>2.616102336111438</v>
+        <v>5.611891759070181</v>
       </c>
       <c r="E21">
-        <v>6.212591645297703</v>
+        <v>7.738704869275565</v>
       </c>
       <c r="F21">
-        <v>39.33052948374759</v>
+        <v>26.64372605778456</v>
       </c>
       <c r="G21">
-        <v>2.09852790128922</v>
+        <v>2.108732069492095</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.782716245909924</v>
+        <v>5.967521612452726</v>
       </c>
       <c r="K21">
-        <v>20.7307106018847</v>
+        <v>13.01995878525588</v>
       </c>
       <c r="L21">
-        <v>6.917084733255726</v>
+        <v>6.629898688293263</v>
       </c>
       <c r="M21">
-        <v>15.31719317023843</v>
+        <v>11.4748447671903</v>
       </c>
       <c r="N21">
-        <v>14.07755441907677</v>
+        <v>13.51442172349214</v>
       </c>
       <c r="O21">
-        <v>29.49451935837367</v>
+        <v>19.56667712887259</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.97968765902429</v>
+        <v>17.3816044251163</v>
       </c>
       <c r="C22">
-        <v>13.77951443530251</v>
+        <v>7.181314600645101</v>
       </c>
       <c r="D22">
-        <v>2.651546310305092</v>
+        <v>5.727797758264744</v>
       </c>
       <c r="E22">
-        <v>6.199357599841472</v>
+        <v>7.749223980137352</v>
       </c>
       <c r="F22">
-        <v>40.05941090946971</v>
+        <v>26.84527330984676</v>
       </c>
       <c r="G22">
-        <v>2.091269447173593</v>
+        <v>2.105065681063873</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.748246346896155</v>
+        <v>5.933163782001385</v>
       </c>
       <c r="K22">
-        <v>21.53883833004332</v>
+        <v>13.4739207864931</v>
       </c>
       <c r="L22">
-        <v>6.987963548562419</v>
+        <v>6.694492800618993</v>
       </c>
       <c r="M22">
-        <v>15.68946751943981</v>
+        <v>11.70983779704413</v>
       </c>
       <c r="N22">
-        <v>13.8796631324978</v>
+        <v>13.34798616406342</v>
       </c>
       <c r="O22">
-        <v>29.98774096785157</v>
+        <v>19.61523361973391</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.50459067596563</v>
+        <v>17.08607262661696</v>
       </c>
       <c r="C23">
-        <v>13.51410252233033</v>
+        <v>7.146961111393344</v>
       </c>
       <c r="D23">
-        <v>2.632550217922963</v>
+        <v>5.666074823945496</v>
       </c>
       <c r="E23">
-        <v>6.206333646541053</v>
+        <v>7.743374306890508</v>
       </c>
       <c r="F23">
-        <v>39.66824614902939</v>
+        <v>26.7361292789195</v>
       </c>
       <c r="G23">
-        <v>2.095138517452426</v>
+        <v>2.107016636411738</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.766614156498302</v>
+        <v>5.951432672845823</v>
       </c>
       <c r="K23">
-        <v>21.11006261722994</v>
+        <v>13.23339217982064</v>
       </c>
       <c r="L23">
-        <v>6.949922602515541</v>
+        <v>6.659909278980019</v>
       </c>
       <c r="M23">
-        <v>15.49094571830713</v>
+        <v>11.58466634201387</v>
       </c>
       <c r="N23">
-        <v>13.98507057295711</v>
+        <v>13.43666055679815</v>
       </c>
       <c r="O23">
-        <v>29.72261726436193</v>
+        <v>19.58805349956778</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.66182392949711</v>
+        <v>15.92765752581749</v>
       </c>
       <c r="C24">
-        <v>12.47425502473596</v>
+        <v>7.015975422774404</v>
       </c>
       <c r="D24">
-        <v>2.562208018265289</v>
+        <v>5.429448569286078</v>
       </c>
       <c r="E24">
-        <v>6.234631674585764</v>
+        <v>7.726337505327756</v>
       </c>
       <c r="F24">
-        <v>38.23339681251808</v>
+        <v>26.35695119752766</v>
       </c>
       <c r="G24">
-        <v>2.109914807902806</v>
+        <v>2.114537852781453</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.836878903211558</v>
+        <v>6.022146848739994</v>
       </c>
       <c r="K24">
-        <v>19.47651359874953</v>
+        <v>12.28361801444531</v>
       </c>
       <c r="L24">
-        <v>6.81046888725449</v>
+        <v>6.531367845821712</v>
       </c>
       <c r="M24">
-        <v>14.73563278983007</v>
+        <v>11.10547824939914</v>
       </c>
       <c r="N24">
-        <v>14.38901662128931</v>
+        <v>13.77606996718682</v>
       </c>
       <c r="O24">
-        <v>28.7591978980449</v>
+        <v>19.51231493441527</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.58245401980995</v>
+        <v>14.59645284361304</v>
       </c>
       <c r="C25">
-        <v>11.27540565134139</v>
+        <v>6.872973154324244</v>
       </c>
       <c r="D25">
-        <v>2.48899290481634</v>
+        <v>5.169326411250938</v>
       </c>
       <c r="E25">
-        <v>6.268948419141126</v>
+        <v>7.718550749912137</v>
       </c>
       <c r="F25">
-        <v>36.78239267383879</v>
+        <v>26.01828918964359</v>
       </c>
       <c r="G25">
-        <v>2.126204680735641</v>
+        <v>2.122954202701092</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.914481427979239</v>
+        <v>6.101790954004147</v>
       </c>
       <c r="K25">
-        <v>17.82807910705683</v>
+        <v>11.17531033888056</v>
       </c>
       <c r="L25">
-        <v>6.669771850853672</v>
+        <v>6.398282531213684</v>
       </c>
       <c r="M25">
-        <v>13.91562331448492</v>
+        <v>10.58004219193905</v>
       </c>
       <c r="N25">
-        <v>14.83552650953802</v>
+        <v>14.15074839684772</v>
       </c>
       <c r="O25">
-        <v>27.80310820651792</v>
+        <v>19.48504544181668</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.54885567310213</v>
+        <v>12.30105503862799</v>
       </c>
       <c r="C2">
-        <v>6.766372588563814</v>
+        <v>7.533227284876874</v>
       </c>
       <c r="D2">
-        <v>4.974969799319117</v>
+        <v>5.859442725640323</v>
       </c>
       <c r="E2">
-        <v>7.721573553427108</v>
+        <v>8.047498829035705</v>
       </c>
       <c r="F2">
-        <v>25.82636010150799</v>
+        <v>21.63937873563557</v>
       </c>
       <c r="G2">
-        <v>2.129433066273291</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>24.10763875968372</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.478787643836904</v>
       </c>
       <c r="J2">
-        <v>6.163449590458218</v>
+        <v>9.758239000769169</v>
       </c>
       <c r="K2">
-        <v>10.28628140263852</v>
+        <v>16.0344830194441</v>
       </c>
       <c r="L2">
-        <v>6.305410353335475</v>
+        <v>6.074470795273016</v>
       </c>
       <c r="M2">
-        <v>10.18847180586648</v>
+        <v>10.2903517115159</v>
       </c>
       <c r="N2">
-        <v>14.43493965730671</v>
+        <v>6.462021676408695</v>
       </c>
       <c r="O2">
-        <v>19.50804862556319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.646510961632137</v>
+      </c>
+      <c r="P2">
+        <v>13.45586032902182</v>
+      </c>
+      <c r="Q2">
+        <v>15.9576415202147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.79902368536868</v>
+        <v>11.54950322674968</v>
       </c>
       <c r="C3">
-        <v>6.69340980059762</v>
+        <v>7.389127620481122</v>
       </c>
       <c r="D3">
-        <v>4.842282802440677</v>
+        <v>5.713793859491216</v>
       </c>
       <c r="E3">
-        <v>7.72890648093742</v>
+        <v>8.046778570551268</v>
       </c>
       <c r="F3">
-        <v>25.73039851518747</v>
+        <v>21.56945899697336</v>
       </c>
       <c r="G3">
-        <v>2.134009509463517</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>24.02338950925363</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.619260202774776</v>
       </c>
       <c r="J3">
-        <v>6.207176365987645</v>
+        <v>9.813958166119738</v>
       </c>
       <c r="K3">
-        <v>9.637930740645109</v>
+        <v>16.14247778117191</v>
       </c>
       <c r="L3">
-        <v>6.245821768361519</v>
+        <v>6.104947233139779</v>
       </c>
       <c r="M3">
-        <v>9.921720607719561</v>
+        <v>9.719494471075773</v>
       </c>
       <c r="N3">
-        <v>14.63316794122868</v>
+        <v>6.400503352414743</v>
       </c>
       <c r="O3">
-        <v>19.54864419140517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.353630966742003</v>
+      </c>
+      <c r="P3">
+        <v>13.59392784719351</v>
+      </c>
+      <c r="Q3">
+        <v>16.00946528769429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.31999498546552</v>
+        <v>11.06133033015068</v>
       </c>
       <c r="C4">
-        <v>6.648292452761038</v>
+        <v>7.299547758140065</v>
       </c>
       <c r="D4">
-        <v>4.760628634503237</v>
+        <v>5.624645535859707</v>
       </c>
       <c r="E4">
-        <v>7.735956294219304</v>
+        <v>8.048421750245733</v>
       </c>
       <c r="F4">
-        <v>25.68768663616872</v>
+        <v>21.53604126064189</v>
       </c>
       <c r="G4">
-        <v>2.136914085031091</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>23.98429478894625</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.709624224254207</v>
       </c>
       <c r="J4">
-        <v>6.23500019394436</v>
+        <v>9.851153260654399</v>
       </c>
       <c r="K4">
-        <v>9.217173343071092</v>
+        <v>16.21345432356336</v>
       </c>
       <c r="L4">
-        <v>6.210936986581421</v>
+        <v>6.124266633579324</v>
       </c>
       <c r="M4">
-        <v>9.757825742461382</v>
+        <v>9.350428901325254</v>
       </c>
       <c r="N4">
-        <v>14.7577941238675</v>
+        <v>6.365309331720641</v>
       </c>
       <c r="O4">
-        <v>19.58528893301172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.170984558207532</v>
+      </c>
+      <c r="P4">
+        <v>13.68089375949703</v>
+      </c>
+      <c r="Q4">
+        <v>16.04769419858185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.12029823370377</v>
+        <v>10.85136431526936</v>
       </c>
       <c r="C5">
-        <v>6.629832866612564</v>
+        <v>7.26579100317081</v>
       </c>
       <c r="D5">
-        <v>4.727354887980702</v>
+        <v>5.588816131174571</v>
       </c>
       <c r="E5">
-        <v>7.739460982794492</v>
+        <v>8.04898273481902</v>
       </c>
       <c r="F5">
-        <v>25.6742614118169</v>
+        <v>21.52042145859497</v>
       </c>
       <c r="G5">
-        <v>2.138121940562534</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>23.96414617663948</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.750021220850261</v>
       </c>
       <c r="J5">
-        <v>6.246586471655257</v>
+        <v>9.865886741379091</v>
       </c>
       <c r="K5">
-        <v>9.040011615437484</v>
+        <v>16.24030897148016</v>
       </c>
       <c r="L5">
-        <v>6.197156502459729</v>
+        <v>6.132094434754309</v>
       </c>
       <c r="M5">
-        <v>9.691101580164771</v>
+        <v>9.195427408103859</v>
       </c>
       <c r="N5">
-        <v>14.80933175133739</v>
+        <v>6.352784056624755</v>
       </c>
       <c r="O5">
-        <v>19.60307829849892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.09550262238057</v>
+      </c>
+      <c r="P5">
+        <v>13.71676772196006</v>
+      </c>
+      <c r="Q5">
+        <v>16.06190023015705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.08687414913765</v>
+        <v>10.81072632357512</v>
       </c>
       <c r="C6">
-        <v>6.626763382862596</v>
+        <v>7.26388396870272</v>
       </c>
       <c r="D6">
-        <v>4.72183128620277</v>
+        <v>5.583335436076439</v>
       </c>
       <c r="E6">
-        <v>7.740080838845802</v>
+        <v>8.048337155286882</v>
       </c>
       <c r="F6">
-        <v>25.6722696716121</v>
+        <v>21.51263938319155</v>
       </c>
       <c r="G6">
-        <v>2.138323978848629</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>23.95202796594143</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.760035518274815</v>
       </c>
       <c r="J6">
-        <v>6.248525407353098</v>
+        <v>9.866956640079055</v>
       </c>
       <c r="K6">
-        <v>9.010249955013949</v>
+        <v>16.2408983313676</v>
       </c>
       <c r="L6">
-        <v>6.194894752057711</v>
+        <v>6.133160255320212</v>
       </c>
       <c r="M6">
-        <v>9.680028717838486</v>
+        <v>9.169413519318798</v>
       </c>
       <c r="N6">
-        <v>14.81793545948412</v>
+        <v>6.352167375055513</v>
       </c>
       <c r="O6">
-        <v>19.60620209706223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.082381670329134</v>
+      </c>
+      <c r="P6">
+        <v>13.7226116443274</v>
+      </c>
+      <c r="Q6">
+        <v>16.06075048282668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.31731969161983</v>
+        <v>11.04416936946065</v>
       </c>
       <c r="C7">
-        <v>6.648043791444492</v>
+        <v>7.309218266780952</v>
       </c>
       <c r="D7">
-        <v>4.76017982524317</v>
+        <v>5.625404377919422</v>
       </c>
       <c r="E7">
-        <v>7.736001012953568</v>
+        <v>8.046327981364144</v>
       </c>
       <c r="F7">
-        <v>25.68748959291527</v>
+        <v>21.52129470102659</v>
       </c>
       <c r="G7">
-        <v>2.136930275987381</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>23.95958749195584</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.718738160998605</v>
       </c>
       <c r="J7">
-        <v>6.235155443669478</v>
+        <v>9.847473632391319</v>
       </c>
       <c r="K7">
-        <v>9.214807150184495</v>
+        <v>16.20305773188854</v>
       </c>
       <c r="L7">
-        <v>6.210749366529172</v>
+        <v>6.123714576722818</v>
       </c>
       <c r="M7">
-        <v>9.756925492829879</v>
+        <v>9.348359239024701</v>
       </c>
       <c r="N7">
-        <v>14.75848611126722</v>
+        <v>6.369006896285484</v>
       </c>
       <c r="O7">
-        <v>19.58551740025531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.168462110745319</v>
+      </c>
+      <c r="P7">
+        <v>13.68101946154441</v>
+      </c>
+      <c r="Q7">
+        <v>16.03804899870609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.29428543950706</v>
+        <v>12.02988268275783</v>
       </c>
       <c r="C8">
-        <v>6.741284548489164</v>
+        <v>7.497116599474109</v>
       </c>
       <c r="D8">
-        <v>4.929285134077385</v>
+        <v>5.810780747998288</v>
       </c>
       <c r="E8">
-        <v>7.723568002014004</v>
+        <v>8.044054592575863</v>
       </c>
       <c r="F8">
-        <v>25.78985229715327</v>
+        <v>21.59420477921674</v>
       </c>
       <c r="G8">
-        <v>2.130991645904869</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>24.04385601757668</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.537255567691819</v>
       </c>
       <c r="J8">
-        <v>6.178325703421879</v>
+        <v>9.771715950571165</v>
       </c>
       <c r="K8">
-        <v>10.06743259353985</v>
+        <v>16.05653106719094</v>
       </c>
       <c r="L8">
-        <v>6.284515279974729</v>
+        <v>6.084016378522971</v>
       </c>
       <c r="M8">
-        <v>10.09657226059235</v>
+        <v>10.09741566433702</v>
       </c>
       <c r="N8">
-        <v>14.50269576185734</v>
+        <v>6.445316134596644</v>
       </c>
       <c r="O8">
-        <v>19.51955902134274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.544217524716462</v>
+      </c>
+      <c r="P8">
+        <v>13.5027403830367</v>
+      </c>
+      <c r="Q8">
+        <v>15.96119137884852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05557736193352</v>
+        <v>13.77138874424111</v>
       </c>
       <c r="C9">
-        <v>6.921359046387233</v>
+        <v>7.838664510625357</v>
       </c>
       <c r="D9">
-        <v>5.257486993031955</v>
+        <v>6.172180524002677</v>
       </c>
       <c r="E9">
-        <v>7.719789989842532</v>
+        <v>8.060030445147557</v>
       </c>
       <c r="F9">
-        <v>26.12323209566251</v>
+        <v>21.83996163205691</v>
       </c>
       <c r="G9">
-        <v>2.120076694283815</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>24.35561746942056</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.199642258159284</v>
       </c>
       <c r="J9">
-        <v>6.074501942674109</v>
+        <v>9.654313707347949</v>
       </c>
       <c r="K9">
-        <v>11.559930703357</v>
+        <v>15.8263911036666</v>
       </c>
       <c r="L9">
-        <v>6.442339447792368</v>
+        <v>6.012024760763453</v>
       </c>
       <c r="M9">
-        <v>10.75795694007262</v>
+        <v>11.41704319993305</v>
       </c>
       <c r="N9">
-        <v>14.02330632638643</v>
+        <v>6.608323985736185</v>
       </c>
       <c r="O9">
-        <v>19.48728966562904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.25696851675133</v>
+      </c>
+      <c r="P9">
+        <v>13.17052629077476</v>
+      </c>
+      <c r="Q9">
+        <v>15.88062739003883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.24860018530586</v>
+        <v>14.91910360759381</v>
       </c>
       <c r="C10">
-        <v>7.051669721526174</v>
+        <v>8.08901608318766</v>
       </c>
       <c r="D10">
-        <v>5.49411696144934</v>
+        <v>6.435422680395339</v>
       </c>
       <c r="E10">
-        <v>7.730111849602568</v>
+        <v>8.081140886042048</v>
       </c>
       <c r="F10">
-        <v>26.45419902779508</v>
+        <v>22.06241816811806</v>
       </c>
       <c r="G10">
-        <v>2.112473554935741</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>24.63953974699347</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.975960498081929</v>
       </c>
       <c r="J10">
-        <v>6.002694128064777</v>
+        <v>9.581802062962316</v>
       </c>
       <c r="K10">
-        <v>12.54795796243121</v>
+        <v>15.6765752603052</v>
       </c>
       <c r="L10">
-        <v>6.565834606829888</v>
+        <v>5.961623244516924</v>
       </c>
       <c r="M10">
-        <v>11.23632741705948</v>
+        <v>12.2937494092033</v>
       </c>
       <c r="N10">
-        <v>13.68331806900826</v>
+        <v>6.741691689888023</v>
       </c>
       <c r="O10">
-        <v>19.52841425377229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.75834687094317</v>
+      </c>
+      <c r="P10">
+        <v>12.93653629038428</v>
+      </c>
+      <c r="Q10">
+        <v>15.8511969899131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.76849377542824</v>
+        <v>15.41718064476347</v>
       </c>
       <c r="C11">
-        <v>7.110464074165941</v>
+        <v>8.217687200318112</v>
       </c>
       <c r="D11">
-        <v>5.600339433374596</v>
+        <v>6.55571568687866</v>
       </c>
       <c r="E11">
-        <v>7.737766682919569</v>
+        <v>8.089705057638723</v>
       </c>
       <c r="F11">
-        <v>26.62444352145377</v>
+        <v>22.15197138250139</v>
       </c>
       <c r="G11">
-        <v>2.109098226730037</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>24.74596776554431</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.894127691717082</v>
       </c>
       <c r="J11">
-        <v>5.97095883950712</v>
+        <v>9.546146122775566</v>
       </c>
       <c r="K11">
-        <v>12.9741626833376</v>
+        <v>15.59655883185216</v>
       </c>
       <c r="L11">
-        <v>6.623543165299553</v>
+        <v>5.938340729476128</v>
       </c>
       <c r="M11">
-        <v>11.45143706479979</v>
+        <v>12.67224810764757</v>
       </c>
       <c r="N11">
-        <v>13.53099390773904</v>
+        <v>6.81061118933617</v>
       </c>
       <c r="O11">
-        <v>19.56242353618358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.9785981444945</v>
+      </c>
+      <c r="P11">
+        <v>12.83257025788913</v>
+      </c>
+      <c r="Q11">
+        <v>15.83007706563583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.96203301287114</v>
+        <v>15.61051625676747</v>
       </c>
       <c r="C12">
-        <v>7.132654124393553</v>
+        <v>8.257667635580336</v>
       </c>
       <c r="D12">
-        <v>5.640325645600958</v>
+        <v>6.600137020077184</v>
       </c>
       <c r="E12">
-        <v>7.7411002856796</v>
+        <v>8.095062968855672</v>
       </c>
       <c r="F12">
-        <v>26.69181529876</v>
+        <v>22.19961025489533</v>
       </c>
       <c r="G12">
-        <v>2.107831480378564</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>24.80883479279278</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.855804347544013</v>
       </c>
       <c r="J12">
-        <v>5.959072087446515</v>
+        <v>9.536512864590456</v>
       </c>
       <c r="K12">
-        <v>13.13223864141312</v>
+        <v>15.57642186433436</v>
       </c>
       <c r="L12">
-        <v>6.645606288574771</v>
+        <v>5.930110618447472</v>
       </c>
       <c r="M12">
-        <v>11.53246934535599</v>
+        <v>12.81263188819662</v>
       </c>
       <c r="N12">
-        <v>13.47362241359557</v>
+        <v>6.833916092665032</v>
       </c>
       <c r="O12">
-        <v>19.5776029439038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.06231840361011</v>
+      </c>
+      <c r="P12">
+        <v>12.79335481038329</v>
+      </c>
+      <c r="Q12">
+        <v>15.83170221594582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.92049976619308</v>
+        <v>15.57092374497567</v>
       </c>
       <c r="C13">
-        <v>7.127878459299941</v>
+        <v>8.247348019284944</v>
       </c>
       <c r="D13">
-        <v>5.631724978396329</v>
+        <v>6.590397641203167</v>
       </c>
       <c r="E13">
-        <v>7.740362844284422</v>
+        <v>8.094251511049094</v>
       </c>
       <c r="F13">
-        <v>26.67717531723035</v>
+        <v>22.19170182826628</v>
       </c>
       <c r="G13">
-        <v>2.108103798544514</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>24.79925517088828</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.862316651461789</v>
       </c>
       <c r="J13">
-        <v>5.961626348895197</v>
+        <v>9.539233837963819</v>
       </c>
       <c r="K13">
-        <v>13.09834131160559</v>
+        <v>15.58259508341531</v>
       </c>
       <c r="L13">
-        <v>6.640845410382693</v>
+        <v>5.931979953687635</v>
       </c>
       <c r="M13">
-        <v>11.51503746242346</v>
+        <v>12.78252619246502</v>
       </c>
       <c r="N13">
-        <v>13.48596501556395</v>
+        <v>6.828258227283555</v>
       </c>
       <c r="O13">
-        <v>19.57422985541319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.04456468441941</v>
+      </c>
+      <c r="P13">
+        <v>12.80174952881627</v>
+      </c>
+      <c r="Q13">
+        <v>15.83298736573901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.7844834038774</v>
+        <v>15.43396730620849</v>
       </c>
       <c r="C14">
-        <v>7.112291171073995</v>
+        <v>8.220248606788106</v>
       </c>
       <c r="D14">
-        <v>5.603634071336004</v>
+        <v>6.559296772162751</v>
       </c>
       <c r="E14">
-        <v>7.738032171180337</v>
+        <v>8.090291101185754</v>
       </c>
       <c r="F14">
-        <v>26.62992763841328</v>
+        <v>22.15688967823334</v>
       </c>
       <c r="G14">
-        <v>2.108993785320419</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>24.75282316228674</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.890230996556825</v>
       </c>
       <c r="J14">
-        <v>5.969978307606906</v>
+        <v>9.545627585708608</v>
       </c>
       <c r="K14">
-        <v>12.98723403963077</v>
+        <v>15.59568114514084</v>
       </c>
       <c r="L14">
-        <v>6.62535415641992</v>
+        <v>5.937704785277515</v>
       </c>
       <c r="M14">
-        <v>11.45811250680007</v>
+        <v>12.68385547159708</v>
       </c>
       <c r="N14">
-        <v>13.52626785367607</v>
+        <v>6.812255965701233</v>
       </c>
       <c r="O14">
-        <v>19.56362566706794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.98560483310541</v>
+      </c>
+      <c r="P14">
+        <v>12.82932283990618</v>
+      </c>
+      <c r="Q14">
+        <v>15.83090453625342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.70073412674494</v>
+        <v>15.34579059436915</v>
       </c>
       <c r="C15">
-        <v>7.102733736798907</v>
+        <v>8.20702777377163</v>
       </c>
       <c r="D15">
-        <v>5.586395658094694</v>
+        <v>6.540581307684669</v>
       </c>
       <c r="E15">
-        <v>7.736661478594358</v>
+        <v>8.087203788486065</v>
       </c>
       <c r="F15">
-        <v>26.60136732901019</v>
+        <v>22.13098693397894</v>
       </c>
       <c r="G15">
-        <v>2.109540397242711</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>24.71664738733672</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.910852446749649</v>
       </c>
       <c r="J15">
-        <v>5.975111052903329</v>
+        <v>9.548293784581636</v>
       </c>
       <c r="K15">
-        <v>12.91874626249354</v>
+        <v>15.60011903098566</v>
       </c>
       <c r="L15">
-        <v>6.615892391185278</v>
+        <v>5.941023225981629</v>
       </c>
       <c r="M15">
-        <v>11.42318715609792</v>
+        <v>12.62303900491446</v>
       </c>
       <c r="N15">
-        <v>13.55099413125523</v>
+        <v>6.80373369208283</v>
       </c>
       <c r="O15">
-        <v>19.55743291633901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.94890400558821</v>
+      </c>
+      <c r="P15">
+        <v>12.84631763726479</v>
+      </c>
+      <c r="Q15">
+        <v>15.82645615126605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.21415991553734</v>
+        <v>14.85418444636001</v>
       </c>
       <c r="C16">
-        <v>7.047817230565638</v>
+        <v>8.109294226040342</v>
       </c>
       <c r="D16">
-        <v>5.487143523783414</v>
+        <v>6.430637255241656</v>
       </c>
       <c r="E16">
-        <v>7.729671935364733</v>
+        <v>8.074673459489992</v>
       </c>
       <c r="F16">
-        <v>26.44347563795222</v>
+        <v>22.01623508533123</v>
       </c>
       <c r="G16">
-        <v>2.112695770127551</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>24.56487105899778</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.008634636503944</v>
       </c>
       <c r="J16">
-        <v>6.004786565429185</v>
+        <v>9.573071336438014</v>
       </c>
       <c r="K16">
-        <v>12.51963865188214</v>
+        <v>15.65081709297096</v>
       </c>
       <c r="L16">
-        <v>6.562093160033104</v>
+        <v>5.961466188005255</v>
       </c>
       <c r="M16">
-        <v>11.22221340025217</v>
+        <v>12.26864153249036</v>
       </c>
       <c r="N16">
-        <v>13.6933176829333</v>
+        <v>6.747723830283111</v>
       </c>
       <c r="O16">
-        <v>19.52650815965549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.73983414138983</v>
+      </c>
+      <c r="P16">
+        <v>12.94381406356666</v>
+      </c>
+      <c r="Q16">
+        <v>15.82461851528799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.90977549152965</v>
+        <v>14.55423187469362</v>
       </c>
       <c r="C17">
-        <v>7.014000293063302</v>
+        <v>8.048945912975647</v>
       </c>
       <c r="D17">
-        <v>5.425866510209116</v>
+        <v>6.362862393535923</v>
       </c>
       <c r="E17">
-        <v>7.726148674488717</v>
+        <v>8.067600046525374</v>
       </c>
       <c r="F17">
-        <v>26.3517097838313</v>
+        <v>21.94880492535918</v>
       </c>
       <c r="G17">
-        <v>2.114652446767445</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>24.47590744058916</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.069788679602893</v>
       </c>
       <c r="J17">
-        <v>6.023227678067593</v>
+        <v>9.589252201721253</v>
       </c>
       <c r="K17">
-        <v>12.26886024601493</v>
+        <v>15.68353132566402</v>
       </c>
       <c r="L17">
-        <v>6.529473917428022</v>
+        <v>5.97415860818348</v>
       </c>
       <c r="M17">
-        <v>11.09823284240462</v>
+        <v>12.04601224991027</v>
       </c>
       <c r="N17">
-        <v>13.78120948282043</v>
+        <v>6.713951881187792</v>
       </c>
       <c r="O17">
-        <v>19.51152735540801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.61009300590333</v>
+      </c>
+      <c r="P17">
+        <v>13.00413179816652</v>
+      </c>
+      <c r="Q17">
+        <v>15.82570150391676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.73255573779712</v>
+        <v>14.39201199534807</v>
       </c>
       <c r="C18">
-        <v>6.994504299526104</v>
+        <v>8.005272195289153</v>
       </c>
       <c r="D18">
-        <v>5.39048956406403</v>
+        <v>6.322814263374737</v>
       </c>
       <c r="E18">
-        <v>7.724400179372844</v>
+        <v>8.065565043194187</v>
       </c>
       <c r="F18">
-        <v>26.30077738261708</v>
+        <v>21.92345741403463</v>
       </c>
       <c r="G18">
-        <v>2.115785759430657</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>24.44697842465803</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.096394361012786</v>
       </c>
       <c r="J18">
-        <v>6.033922286797233</v>
+        <v>9.602285576947111</v>
       </c>
       <c r="K18">
-        <v>12.12242865459859</v>
+        <v>15.7123276618144</v>
       </c>
       <c r="L18">
-        <v>6.510856795975241</v>
+        <v>5.982031776146795</v>
       </c>
       <c r="M18">
-        <v>11.02669032805874</v>
+        <v>11.91603420463838</v>
       </c>
       <c r="N18">
-        <v>13.83198423607231</v>
+        <v>6.691534620174144</v>
       </c>
       <c r="O18">
-        <v>19.50434501957442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.5361753109753</v>
+      </c>
+      <c r="P18">
+        <v>13.03891495265156</v>
+      </c>
+      <c r="Q18">
+        <v>15.83565143153305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67218548550696</v>
+        <v>14.32896100572117</v>
       </c>
       <c r="C19">
-        <v>6.987895639699429</v>
+        <v>7.99725273921887</v>
       </c>
       <c r="D19">
-        <v>5.378489938476941</v>
+        <v>6.309975875397152</v>
       </c>
       <c r="E19">
-        <v>7.723855630271609</v>
+        <v>8.063519512448604</v>
       </c>
       <c r="F19">
-        <v>26.28384778952466</v>
+        <v>21.90553603230234</v>
       </c>
       <c r="G19">
-        <v>2.116170850647911</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>24.42145850008431</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.112344296972936</v>
       </c>
       <c r="J19">
-        <v>6.037558464207143</v>
+        <v>9.604157589833367</v>
       </c>
       <c r="K19">
-        <v>12.07247249410954</v>
+        <v>15.71492555649982</v>
       </c>
       <c r="L19">
-        <v>6.504578495410536</v>
+        <v>5.984308910588505</v>
       </c>
       <c r="M19">
-        <v>11.0024294801331</v>
+        <v>11.87170764501179</v>
       </c>
       <c r="N19">
-        <v>13.84921453981727</v>
+        <v>6.686458024731879</v>
       </c>
       <c r="O19">
-        <v>19.50215647428781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.51011407414019</v>
+      </c>
+      <c r="P19">
+        <v>13.0508022968308</v>
+      </c>
+      <c r="Q19">
+        <v>15.83257701177799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.94240025469174</v>
+        <v>14.58664366932811</v>
       </c>
       <c r="C20">
-        <v>7.017604894772951</v>
+        <v>8.054694138770531</v>
       </c>
       <c r="D20">
-        <v>5.432403470874558</v>
+        <v>6.370013875175158</v>
       </c>
       <c r="E20">
-        <v>7.726494893065539</v>
+        <v>8.068471578245372</v>
       </c>
       <c r="F20">
-        <v>26.36128651792599</v>
+        <v>21.95683795733089</v>
       </c>
       <c r="G20">
-        <v>2.114443343280619</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>24.48684388309356</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.062517800679774</v>
       </c>
       <c r="J20">
-        <v>6.021255528462471</v>
+        <v>9.587757498112818</v>
       </c>
       <c r="K20">
-        <v>12.29578256834031</v>
+        <v>15.6807259500017</v>
       </c>
       <c r="L20">
-        <v>6.532931397101923</v>
+        <v>5.972842038111239</v>
       </c>
       <c r="M20">
-        <v>11.11145530697577</v>
+        <v>12.06990867553446</v>
       </c>
       <c r="N20">
-        <v>13.77183048690642</v>
+        <v>6.717273131067627</v>
       </c>
       <c r="O20">
-        <v>19.51297292312096</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.62405469889637</v>
+      </c>
+      <c r="P20">
+        <v>12.99768218814857</v>
+      </c>
+      <c r="Q20">
+        <v>15.82617225475336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.8245254976649</v>
+        <v>15.46397659096794</v>
       </c>
       <c r="C21">
-        <v>7.116871578582069</v>
+        <v>8.23787417197204</v>
       </c>
       <c r="D21">
-        <v>5.611891759070181</v>
+        <v>6.569462855857788</v>
       </c>
       <c r="E21">
-        <v>7.738704869275565</v>
+        <v>8.089440021723485</v>
       </c>
       <c r="F21">
-        <v>26.64372605778456</v>
+        <v>22.15346856183649</v>
       </c>
       <c r="G21">
-        <v>2.108732069492095</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>24.74360791133866</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.891892087910401</v>
       </c>
       <c r="J21">
-        <v>5.967521612452726</v>
+        <v>9.539975164589828</v>
       </c>
       <c r="K21">
-        <v>13.01995878525588</v>
+        <v>15.58130665267649</v>
       </c>
       <c r="L21">
-        <v>6.629898688293263</v>
+        <v>5.935457352217192</v>
       </c>
       <c r="M21">
-        <v>11.4748447671903</v>
+        <v>12.7129297214824</v>
       </c>
       <c r="N21">
-        <v>13.51442172349214</v>
+        <v>6.820452699992165</v>
       </c>
       <c r="O21">
-        <v>19.56667712887259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.00161561160047</v>
+      </c>
+      <c r="P21">
+        <v>12.82142632131049</v>
+      </c>
+      <c r="Q21">
+        <v>15.82200530583648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.3816044251163</v>
+        <v>16.0284879769053</v>
       </c>
       <c r="C22">
-        <v>7.181314600645101</v>
+        <v>8.344040100346971</v>
       </c>
       <c r="D22">
-        <v>5.727797758264744</v>
+        <v>6.697284754927615</v>
       </c>
       <c r="E22">
-        <v>7.749223980137352</v>
+        <v>8.107710309336049</v>
       </c>
       <c r="F22">
-        <v>26.84527330984676</v>
+        <v>22.30903291752004</v>
       </c>
       <c r="G22">
-        <v>2.105065681063873</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>24.95407605210798</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.771514969676046</v>
       </c>
       <c r="J22">
-        <v>5.933163782001385</v>
+        <v>9.516807398098971</v>
       </c>
       <c r="K22">
-        <v>13.4739207864931</v>
+        <v>15.53508878605757</v>
       </c>
       <c r="L22">
-        <v>6.694492800618993</v>
+        <v>5.912228483209195</v>
       </c>
       <c r="M22">
-        <v>11.70983779704413</v>
+        <v>13.11606185283074</v>
       </c>
       <c r="N22">
-        <v>13.34798616406342</v>
+        <v>6.885316523363287</v>
       </c>
       <c r="O22">
-        <v>19.61523361973391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.24494741593764</v>
+      </c>
+      <c r="P22">
+        <v>12.70759196843954</v>
+      </c>
+      <c r="Q22">
+        <v>15.83873710428926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.08607262661696</v>
+        <v>15.74204711718096</v>
       </c>
       <c r="C23">
-        <v>7.146961111393344</v>
+        <v>8.275908380451902</v>
       </c>
       <c r="D23">
-        <v>5.666074823945496</v>
+        <v>6.627961724563628</v>
       </c>
       <c r="E23">
-        <v>7.743374306890508</v>
+        <v>8.100187294088245</v>
       </c>
       <c r="F23">
-        <v>26.7361292789195</v>
+        <v>22.24146130590323</v>
       </c>
       <c r="G23">
-        <v>2.107016636411738</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>24.86787938740751</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.823858839880178</v>
       </c>
       <c r="J23">
-        <v>5.951432672845823</v>
+        <v>9.533396427612733</v>
       </c>
       <c r="K23">
-        <v>13.23339217982064</v>
+        <v>15.57192206687445</v>
       </c>
       <c r="L23">
-        <v>6.659909278980019</v>
+        <v>5.925259612284008</v>
       </c>
       <c r="M23">
-        <v>11.58466634201387</v>
+        <v>12.90245513954602</v>
       </c>
       <c r="N23">
-        <v>13.43666055679815</v>
+        <v>6.846320783545298</v>
       </c>
       <c r="O23">
-        <v>19.58805349956778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.11716264100123</v>
+      </c>
+      <c r="P23">
+        <v>12.76793326586881</v>
+      </c>
+      <c r="Q23">
+        <v>15.84052781987711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.92765752581749</v>
+        <v>14.59280940684423</v>
       </c>
       <c r="C24">
-        <v>7.015975422774404</v>
+        <v>8.033549452218507</v>
       </c>
       <c r="D24">
-        <v>5.429448569286078</v>
+        <v>6.364767692381395</v>
       </c>
       <c r="E24">
-        <v>7.726337505327756</v>
+        <v>8.071900579624586</v>
       </c>
       <c r="F24">
-        <v>26.35695119752766</v>
+        <v>21.97929071664112</v>
       </c>
       <c r="G24">
-        <v>2.114537852781453</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>24.52566805660002</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.047584205065506</v>
       </c>
       <c r="J24">
-        <v>6.022146848739994</v>
+        <v>9.595569321894837</v>
       </c>
       <c r="K24">
-        <v>12.28361801444531</v>
+        <v>15.70190429890628</v>
       </c>
       <c r="L24">
-        <v>6.531367845821712</v>
+        <v>5.974526805565196</v>
       </c>
       <c r="M24">
-        <v>11.10547824939914</v>
+        <v>12.05908470883766</v>
       </c>
       <c r="N24">
-        <v>13.77606996718682</v>
+        <v>6.709002833924374</v>
       </c>
       <c r="O24">
-        <v>19.51231493441527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.62032999159058</v>
+      </c>
+      <c r="P24">
+        <v>13.00036252355225</v>
+      </c>
+      <c r="Q24">
+        <v>15.84400081808555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.59645284361304</v>
+        <v>13.30167073681447</v>
       </c>
       <c r="C25">
-        <v>6.872973154324244</v>
+        <v>7.765374682834331</v>
       </c>
       <c r="D25">
-        <v>5.169326411250938</v>
+        <v>6.076767391102317</v>
       </c>
       <c r="E25">
-        <v>7.718550749912137</v>
+        <v>8.050155274527123</v>
       </c>
       <c r="F25">
-        <v>26.01828918964359</v>
+        <v>21.73930921871097</v>
       </c>
       <c r="G25">
-        <v>2.122954202701092</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>24.21662083137501</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.303220444371797</v>
       </c>
       <c r="J25">
-        <v>6.101790954004147</v>
+        <v>9.676438988937996</v>
       </c>
       <c r="K25">
-        <v>11.17531033888056</v>
+        <v>15.86506829921324</v>
       </c>
       <c r="L25">
-        <v>6.398282531213684</v>
+        <v>6.029909196383252</v>
       </c>
       <c r="M25">
-        <v>10.58004219193905</v>
+        <v>11.07628038091645</v>
       </c>
       <c r="N25">
-        <v>14.15074839684772</v>
+        <v>6.568840329069108</v>
       </c>
       <c r="O25">
-        <v>19.48504544181668</v>
+        <v>10.06500021087075</v>
+      </c>
+      <c r="P25">
+        <v>13.2585692485537</v>
+      </c>
+      <c r="Q25">
+        <v>15.87890721308163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.30105503862799</v>
+        <v>12.02835524001456</v>
       </c>
       <c r="C2">
-        <v>7.533227284876874</v>
+        <v>7.244233322432097</v>
       </c>
       <c r="D2">
-        <v>5.859442725640323</v>
+        <v>5.881810759717391</v>
       </c>
       <c r="E2">
-        <v>8.047498829035705</v>
+        <v>7.924013244155582</v>
       </c>
       <c r="F2">
-        <v>21.63937873563557</v>
+        <v>21.13213193114944</v>
       </c>
       <c r="G2">
-        <v>24.10763875968372</v>
+        <v>22.92039755776309</v>
       </c>
       <c r="I2">
-        <v>3.478787643836904</v>
+        <v>3.324008431134098</v>
       </c>
       <c r="J2">
-        <v>9.758239000769169</v>
+        <v>9.818003075089054</v>
       </c>
       <c r="K2">
-        <v>16.0344830194441</v>
+        <v>15.48847859540134</v>
       </c>
       <c r="L2">
-        <v>6.074470795273016</v>
+        <v>12.51294996573329</v>
       </c>
       <c r="M2">
-        <v>10.2903517115159</v>
+        <v>10.36672987394307</v>
       </c>
       <c r="N2">
-        <v>6.462021676408695</v>
+        <v>5.985808164152075</v>
       </c>
       <c r="O2">
-        <v>9.646510961632137</v>
+        <v>10.32413772789269</v>
       </c>
       <c r="P2">
-        <v>13.45586032902182</v>
+        <v>6.608584043078684</v>
       </c>
       <c r="Q2">
-        <v>15.9576415202147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.571324294101089</v>
+      </c>
+      <c r="R2">
+        <v>13.30888193921486</v>
+      </c>
+      <c r="S2">
+        <v>15.56892570559917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.54950322674968</v>
+        <v>11.30049555604159</v>
       </c>
       <c r="C3">
-        <v>7.389127620481122</v>
+        <v>7.035019073085857</v>
       </c>
       <c r="D3">
-        <v>5.713793859491216</v>
+        <v>5.733942988873848</v>
       </c>
       <c r="E3">
-        <v>8.046778570551268</v>
+        <v>7.926247175003081</v>
       </c>
       <c r="F3">
-        <v>21.56945899697336</v>
+        <v>21.08150005100581</v>
       </c>
       <c r="G3">
-        <v>24.02338950925363</v>
+        <v>22.91571269083375</v>
       </c>
       <c r="I3">
-        <v>3.619260202774776</v>
+        <v>3.449677342325793</v>
       </c>
       <c r="J3">
-        <v>9.813958166119738</v>
+        <v>9.84353870749476</v>
       </c>
       <c r="K3">
-        <v>16.14247778117191</v>
+        <v>15.60505675499289</v>
       </c>
       <c r="L3">
-        <v>6.104947233139779</v>
+        <v>12.66191720821448</v>
       </c>
       <c r="M3">
-        <v>9.719494471075773</v>
+        <v>10.42945956011601</v>
       </c>
       <c r="N3">
-        <v>6.400503352414743</v>
+        <v>6.014307220353611</v>
       </c>
       <c r="O3">
-        <v>9.353630966742003</v>
+        <v>9.757401490324305</v>
       </c>
       <c r="P3">
-        <v>13.59392784719351</v>
+        <v>6.540553346999429</v>
       </c>
       <c r="Q3">
-        <v>16.00946528769429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.276039874748337</v>
+      </c>
+      <c r="R3">
+        <v>13.43545365444313</v>
+      </c>
+      <c r="S3">
+        <v>15.63121399674547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.06133033015068</v>
+        <v>10.82655334468796</v>
       </c>
       <c r="C4">
-        <v>7.299547758140065</v>
+        <v>6.904935941229749</v>
       </c>
       <c r="D4">
-        <v>5.624645535859707</v>
+        <v>5.643472364876494</v>
       </c>
       <c r="E4">
-        <v>8.048421750245733</v>
+        <v>7.929542575164129</v>
       </c>
       <c r="F4">
-        <v>21.53604126064189</v>
+        <v>21.05856834310483</v>
       </c>
       <c r="G4">
-        <v>23.98429478894625</v>
+        <v>22.92644003054071</v>
       </c>
       <c r="I4">
-        <v>3.709624224254207</v>
+        <v>3.530813346317985</v>
       </c>
       <c r="J4">
-        <v>9.851153260654399</v>
+        <v>9.860644409866097</v>
       </c>
       <c r="K4">
-        <v>16.21345432356336</v>
+        <v>15.68020433942543</v>
       </c>
       <c r="L4">
-        <v>6.124266633579324</v>
+        <v>12.7559764480933</v>
       </c>
       <c r="M4">
-        <v>9.350428901325254</v>
+        <v>10.48487639002092</v>
       </c>
       <c r="N4">
-        <v>6.365309331720641</v>
+        <v>6.0323521140755</v>
       </c>
       <c r="O4">
-        <v>9.170984558207532</v>
+        <v>9.391116755178325</v>
       </c>
       <c r="P4">
-        <v>13.68089375949703</v>
+        <v>6.501592384320079</v>
       </c>
       <c r="Q4">
-        <v>16.04769419858185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.091451746937247</v>
+      </c>
+      <c r="R4">
+        <v>13.51546282901199</v>
+      </c>
+      <c r="S4">
+        <v>15.67483597112483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.85136431526936</v>
+        <v>10.6221821760934</v>
       </c>
       <c r="C5">
-        <v>7.26579100317081</v>
+        <v>6.855263526153929</v>
       </c>
       <c r="D5">
-        <v>5.588816131174571</v>
+        <v>5.607124826617278</v>
       </c>
       <c r="E5">
-        <v>8.04898273481902</v>
+        <v>7.930730556746249</v>
       </c>
       <c r="F5">
-        <v>21.52042145859497</v>
+        <v>21.04681029851938</v>
       </c>
       <c r="G5">
-        <v>23.96414617663948</v>
+        <v>22.92671834145657</v>
       </c>
       <c r="I5">
-        <v>3.750021220850261</v>
+        <v>3.567851695610933</v>
       </c>
       <c r="J5">
-        <v>9.865886741379091</v>
+        <v>9.866738248825248</v>
       </c>
       <c r="K5">
-        <v>16.24030897148016</v>
+        <v>15.70848765078557</v>
       </c>
       <c r="L5">
-        <v>6.132094434754309</v>
+        <v>12.79163515618394</v>
       </c>
       <c r="M5">
-        <v>9.195427408103859</v>
+        <v>10.51012294761911</v>
       </c>
       <c r="N5">
-        <v>6.352784056624755</v>
+        <v>6.03965059081279</v>
       </c>
       <c r="O5">
-        <v>9.09550262238057</v>
+        <v>9.237322091715194</v>
       </c>
       <c r="P5">
-        <v>13.71676772196006</v>
+        <v>6.487607529707634</v>
       </c>
       <c r="Q5">
-        <v>16.06190023015705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.015047486972911</v>
+      </c>
+      <c r="R5">
+        <v>13.54856722048994</v>
+      </c>
+      <c r="S5">
+        <v>15.69094890730094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.81072632357512</v>
+        <v>10.58235211113814</v>
       </c>
       <c r="C6">
-        <v>7.26388396870272</v>
+        <v>6.851556885541752</v>
       </c>
       <c r="D6">
-        <v>5.583335436076439</v>
+        <v>5.601568632899228</v>
       </c>
       <c r="E6">
-        <v>8.048337155286882</v>
+        <v>7.930179565853991</v>
       </c>
       <c r="F6">
-        <v>21.51263938319155</v>
+        <v>21.03956379384062</v>
       </c>
       <c r="G6">
-        <v>23.95202796594143</v>
+        <v>22.91790941484057</v>
       </c>
       <c r="I6">
-        <v>3.760035518274815</v>
+        <v>3.577882543710729</v>
       </c>
       <c r="J6">
-        <v>9.866956640079055</v>
+        <v>9.866264738212072</v>
       </c>
       <c r="K6">
-        <v>16.2408983313676</v>
+        <v>15.70929762800265</v>
       </c>
       <c r="L6">
-        <v>6.133160255320212</v>
+        <v>12.79353687418273</v>
       </c>
       <c r="M6">
-        <v>9.169413519318798</v>
+        <v>10.51268992213208</v>
       </c>
       <c r="N6">
-        <v>6.352167375055513</v>
+        <v>6.040634371966002</v>
       </c>
       <c r="O6">
-        <v>9.082381670329134</v>
+        <v>9.211518765622875</v>
       </c>
       <c r="P6">
-        <v>13.7226116443274</v>
+        <v>6.486769503429092</v>
       </c>
       <c r="Q6">
-        <v>16.06075048282668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.001749938907807</v>
+      </c>
+      <c r="R6">
+        <v>13.55400584963215</v>
+      </c>
+      <c r="S6">
+        <v>15.69005682670036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.04416936946065</v>
+        <v>10.80664719445399</v>
       </c>
       <c r="C7">
-        <v>7.309218266780952</v>
+        <v>6.913439596511842</v>
       </c>
       <c r="D7">
-        <v>5.625404377919422</v>
+        <v>5.647030320839563</v>
       </c>
       <c r="E7">
-        <v>8.046327981364144</v>
+        <v>7.928346752923556</v>
       </c>
       <c r="F7">
-        <v>21.52129470102659</v>
+        <v>21.03524695344979</v>
       </c>
       <c r="G7">
-        <v>23.95958749195584</v>
+        <v>22.96818828347086</v>
       </c>
       <c r="I7">
-        <v>3.718738160998605</v>
+        <v>3.541861913756726</v>
       </c>
       <c r="J7">
-        <v>9.847473632391319</v>
+        <v>9.828376149200995</v>
       </c>
       <c r="K7">
-        <v>16.20305773188854</v>
+        <v>15.66596140391847</v>
       </c>
       <c r="L7">
-        <v>6.123714576722818</v>
+        <v>12.74173114781369</v>
       </c>
       <c r="M7">
-        <v>9.348359239024701</v>
+        <v>10.477823217734</v>
       </c>
       <c r="N7">
-        <v>6.369006896285484</v>
+        <v>6.031770906449138</v>
       </c>
       <c r="O7">
-        <v>9.168462110745319</v>
+        <v>9.385588748020822</v>
       </c>
       <c r="P7">
-        <v>13.68101946154441</v>
+        <v>6.50520778327602</v>
       </c>
       <c r="Q7">
-        <v>16.03804899870609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.087996748816625</v>
+      </c>
+      <c r="R7">
+        <v>13.51568596769683</v>
+      </c>
+      <c r="S7">
+        <v>15.65889463541882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.02988268275783</v>
+        <v>11.75727890166853</v>
       </c>
       <c r="C8">
-        <v>7.497116599474109</v>
+        <v>7.178217601261627</v>
       </c>
       <c r="D8">
-        <v>5.810780747998288</v>
+        <v>5.841396469557444</v>
       </c>
       <c r="E8">
-        <v>8.044054592575863</v>
+        <v>7.924637687114974</v>
       </c>
       <c r="F8">
-        <v>21.59420477921674</v>
+        <v>21.06593345902798</v>
       </c>
       <c r="G8">
-        <v>24.04385601757668</v>
+        <v>23.10531512998113</v>
       </c>
       <c r="I8">
-        <v>3.537255567691819</v>
+        <v>3.380767030876606</v>
       </c>
       <c r="J8">
-        <v>9.771715950571165</v>
+        <v>9.729105901916023</v>
       </c>
       <c r="K8">
-        <v>16.05653106719094</v>
+        <v>15.50106918516353</v>
       </c>
       <c r="L8">
-        <v>6.084016378522971</v>
+        <v>12.53899861756959</v>
       </c>
       <c r="M8">
-        <v>10.09741566433702</v>
+        <v>10.36862265940163</v>
       </c>
       <c r="N8">
-        <v>6.445316134596644</v>
+        <v>5.99459563717836</v>
       </c>
       <c r="O8">
-        <v>9.544217524716462</v>
+        <v>10.12175151547473</v>
       </c>
       <c r="P8">
-        <v>13.5027403830367</v>
+        <v>6.589255859866397</v>
       </c>
       <c r="Q8">
-        <v>15.96119137884852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.465386190490038</v>
+      </c>
+      <c r="R8">
+        <v>13.35223207079198</v>
+      </c>
+      <c r="S8">
+        <v>15.55563437030908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.77138874424111</v>
+        <v>13.48245212458442</v>
       </c>
       <c r="C9">
-        <v>7.838664510625357</v>
+        <v>7.673011115581287</v>
       </c>
       <c r="D9">
-        <v>6.172180524002677</v>
+        <v>6.21027662568121</v>
       </c>
       <c r="E9">
-        <v>8.060030445147557</v>
+        <v>7.933208899386443</v>
       </c>
       <c r="F9">
-        <v>21.83996163205691</v>
+        <v>21.2492092281707</v>
       </c>
       <c r="G9">
-        <v>24.35561746942056</v>
+        <v>23.28521763904602</v>
       </c>
       <c r="I9">
-        <v>3.199642258159284</v>
+        <v>3.077961415163204</v>
       </c>
       <c r="J9">
-        <v>9.654313707347949</v>
+        <v>9.652973048738524</v>
       </c>
       <c r="K9">
-        <v>15.8263911036666</v>
+        <v>15.23969022541211</v>
       </c>
       <c r="L9">
-        <v>6.012024760763453</v>
+        <v>12.19308937362636</v>
       </c>
       <c r="M9">
-        <v>11.41704319993305</v>
+        <v>10.30961009367665</v>
       </c>
       <c r="N9">
-        <v>6.608323985736185</v>
+        <v>5.927182334752875</v>
       </c>
       <c r="O9">
-        <v>10.25696851675133</v>
+        <v>11.43066076045388</v>
       </c>
       <c r="P9">
-        <v>13.17052629077476</v>
+        <v>6.769427346853211</v>
       </c>
       <c r="Q9">
-        <v>15.88062739003883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.18101652836355</v>
+      </c>
+      <c r="R9">
+        <v>13.04980441049334</v>
+      </c>
+      <c r="S9">
+        <v>15.43756038181333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.91910360759381</v>
+        <v>14.61387815893641</v>
       </c>
       <c r="C10">
-        <v>8.08901608318766</v>
+        <v>8.014860214062516</v>
       </c>
       <c r="D10">
-        <v>6.435422680395339</v>
+        <v>6.493409187332018</v>
       </c>
       <c r="E10">
-        <v>8.081140886042048</v>
+        <v>7.953511587658002</v>
       </c>
       <c r="F10">
-        <v>22.06241816811806</v>
+        <v>21.37173596138419</v>
       </c>
       <c r="G10">
-        <v>24.63953974699347</v>
+        <v>23.87035858393904</v>
       </c>
       <c r="I10">
-        <v>2.975960498081929</v>
+        <v>2.882421770459263</v>
       </c>
       <c r="J10">
-        <v>9.581802062962316</v>
+        <v>9.448518183662403</v>
       </c>
       <c r="K10">
-        <v>15.6765752603052</v>
+        <v>15.03878748994346</v>
       </c>
       <c r="L10">
-        <v>5.961623244516924</v>
+        <v>11.93120360201937</v>
       </c>
       <c r="M10">
-        <v>12.2937494092033</v>
+        <v>10.32848186810665</v>
       </c>
       <c r="N10">
-        <v>6.741691689888023</v>
+        <v>5.879737625281678</v>
       </c>
       <c r="O10">
-        <v>10.75834687094317</v>
+        <v>12.28428924195334</v>
       </c>
       <c r="P10">
-        <v>12.93653629038428</v>
+        <v>6.915402975632764</v>
       </c>
       <c r="Q10">
-        <v>15.8511969899131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.67767421381697</v>
+      </c>
+      <c r="R10">
+        <v>12.8402044294449</v>
+      </c>
+      <c r="S10">
+        <v>15.3390713386476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.41718064476347</v>
+        <v>15.06056215343916</v>
       </c>
       <c r="C11">
-        <v>8.217687200318112</v>
+        <v>8.157094376177652</v>
       </c>
       <c r="D11">
-        <v>6.55571568687866</v>
+        <v>6.647909266545103</v>
       </c>
       <c r="E11">
-        <v>8.089705057638723</v>
+        <v>7.971337181935214</v>
       </c>
       <c r="F11">
-        <v>22.15197138250139</v>
+        <v>21.33036835088265</v>
       </c>
       <c r="G11">
-        <v>24.74596776554431</v>
+        <v>24.81967876300788</v>
       </c>
       <c r="I11">
-        <v>2.894127691717082</v>
+        <v>2.819618025520261</v>
       </c>
       <c r="J11">
-        <v>9.546146122775566</v>
+        <v>9.110735549505772</v>
       </c>
       <c r="K11">
-        <v>15.59655883185216</v>
+        <v>14.89543372995307</v>
       </c>
       <c r="L11">
-        <v>5.938340729476128</v>
+        <v>11.77694268638375</v>
       </c>
       <c r="M11">
-        <v>12.67224810764757</v>
+        <v>10.30692752369266</v>
       </c>
       <c r="N11">
-        <v>6.81061118933617</v>
+        <v>5.85759460152258</v>
       </c>
       <c r="O11">
-        <v>10.9785981444945</v>
+        <v>12.62535287286418</v>
       </c>
       <c r="P11">
-        <v>12.83257025788913</v>
+        <v>6.988712373111869</v>
       </c>
       <c r="Q11">
-        <v>15.83007706563583</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.88706815784885</v>
+      </c>
+      <c r="R11">
+        <v>12.75143538262919</v>
+      </c>
+      <c r="S11">
+        <v>15.22147128103008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.61051625676747</v>
+        <v>15.2325096004203</v>
       </c>
       <c r="C12">
-        <v>8.257667635580336</v>
+        <v>8.196720429623085</v>
       </c>
       <c r="D12">
-        <v>6.600137020077184</v>
+        <v>6.708352078658418</v>
       </c>
       <c r="E12">
-        <v>8.095062968855672</v>
+        <v>7.981534025757846</v>
       </c>
       <c r="F12">
-        <v>22.19961025489533</v>
+        <v>21.31744075394123</v>
       </c>
       <c r="G12">
-        <v>24.80883479279278</v>
+        <v>25.29837380174853</v>
       </c>
       <c r="I12">
-        <v>2.855804347544013</v>
+        <v>2.787312438652828</v>
       </c>
       <c r="J12">
-        <v>9.536512864590456</v>
+        <v>8.968946336624869</v>
       </c>
       <c r="K12">
-        <v>15.57642186433436</v>
+        <v>14.84554639821919</v>
       </c>
       <c r="L12">
-        <v>5.930110618447472</v>
+        <v>11.72249405506137</v>
       </c>
       <c r="M12">
-        <v>12.81263188819662</v>
+        <v>10.30372145736143</v>
       </c>
       <c r="N12">
-        <v>6.833916092665032</v>
+        <v>5.849732480083273</v>
       </c>
       <c r="O12">
-        <v>11.06231840361011</v>
+        <v>12.74850983969679</v>
       </c>
       <c r="P12">
-        <v>12.79335481038329</v>
+        <v>7.013407615489772</v>
       </c>
       <c r="Q12">
-        <v>15.83170221594582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.96560625749576</v>
+      </c>
+      <c r="R12">
+        <v>12.71830633632698</v>
+      </c>
+      <c r="S12">
+        <v>15.17791175881521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.57092374497567</v>
+        <v>15.19762163154862</v>
       </c>
       <c r="C13">
-        <v>8.247348019284944</v>
+        <v>8.186291381639105</v>
       </c>
       <c r="D13">
-        <v>6.590397641203167</v>
+        <v>6.695019175212474</v>
       </c>
       <c r="E13">
-        <v>8.094251511049094</v>
+        <v>7.97962078223141</v>
       </c>
       <c r="F13">
-        <v>22.19170182826628</v>
+        <v>21.32305995988832</v>
       </c>
       <c r="G13">
-        <v>24.79925517088828</v>
+        <v>25.19502836947105</v>
       </c>
       <c r="I13">
-        <v>2.862316651461789</v>
+        <v>2.792196501941543</v>
       </c>
       <c r="J13">
-        <v>9.539233837963819</v>
+        <v>9.000425877188498</v>
       </c>
       <c r="K13">
-        <v>15.58259508341531</v>
+        <v>14.85826823486931</v>
       </c>
       <c r="L13">
-        <v>5.931979953687635</v>
+        <v>11.73553806605131</v>
       </c>
       <c r="M13">
-        <v>12.78252619246502</v>
+        <v>10.306032670178</v>
       </c>
       <c r="N13">
-        <v>6.828258227283555</v>
+        <v>5.851513890192757</v>
       </c>
       <c r="O13">
-        <v>11.04456468441941</v>
+        <v>12.72224519042125</v>
       </c>
       <c r="P13">
-        <v>12.80174952881627</v>
+        <v>7.007450428941452</v>
       </c>
       <c r="Q13">
-        <v>15.83298736573901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.9490222170205</v>
+      </c>
+      <c r="R13">
+        <v>12.7252848899906</v>
+      </c>
+      <c r="S13">
+        <v>15.18927696242199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.43396730620849</v>
+        <v>15.07563330219234</v>
       </c>
       <c r="C14">
-        <v>8.220248606788106</v>
+        <v>8.159548659458924</v>
       </c>
       <c r="D14">
-        <v>6.559296772162751</v>
+        <v>6.652744293876387</v>
       </c>
       <c r="E14">
-        <v>8.090291101185754</v>
+        <v>7.972294532101015</v>
       </c>
       <c r="F14">
-        <v>22.15688967823334</v>
+        <v>21.33052248044416</v>
       </c>
       <c r="G14">
-        <v>24.75282316228674</v>
+        <v>24.85884798776491</v>
       </c>
       <c r="I14">
-        <v>2.890230996556825</v>
+        <v>2.816073451681189</v>
       </c>
       <c r="J14">
-        <v>9.545627585708608</v>
+        <v>9.099525559934209</v>
       </c>
       <c r="K14">
-        <v>15.59568114514084</v>
+        <v>14.89217698002189</v>
       </c>
       <c r="L14">
-        <v>5.937704785277515</v>
+        <v>11.77303330230901</v>
       </c>
       <c r="M14">
-        <v>12.68385547159708</v>
+        <v>10.30735142879384</v>
       </c>
       <c r="N14">
-        <v>6.812255965701233</v>
+        <v>5.856985338075645</v>
       </c>
       <c r="O14">
-        <v>10.98560483310541</v>
+        <v>12.63560217706982</v>
       </c>
       <c r="P14">
-        <v>12.82932283990618</v>
+        <v>6.990471735875031</v>
       </c>
       <c r="Q14">
-        <v>15.83090453625342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.89367251847599</v>
+      </c>
+      <c r="R14">
+        <v>12.74864497219543</v>
+      </c>
+      <c r="S14">
+        <v>15.21874050163805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.34579059436915</v>
+        <v>14.99634648427697</v>
       </c>
       <c r="C15">
-        <v>8.20702777377163</v>
+        <v>8.146787320661474</v>
       </c>
       <c r="D15">
-        <v>6.540581307684669</v>
+        <v>6.627597526244336</v>
       </c>
       <c r="E15">
-        <v>8.087203788486065</v>
+        <v>7.96732051625114</v>
       </c>
       <c r="F15">
-        <v>22.13098693397894</v>
+        <v>21.32908177097251</v>
       </c>
       <c r="G15">
-        <v>24.71664738733672</v>
+        <v>24.65764286117984</v>
       </c>
       <c r="I15">
-        <v>2.910852446749649</v>
+        <v>2.834910017710244</v>
       </c>
       <c r="J15">
-        <v>9.548293784581636</v>
+        <v>9.15747146467252</v>
       </c>
       <c r="K15">
-        <v>15.60011903098566</v>
+        <v>14.90883772019425</v>
       </c>
       <c r="L15">
-        <v>5.941023225981629</v>
+        <v>11.79323557155532</v>
       </c>
       <c r="M15">
-        <v>12.62303900491446</v>
+        <v>10.30489362012325</v>
       </c>
       <c r="N15">
-        <v>6.80373369208283</v>
+        <v>5.860164331670576</v>
       </c>
       <c r="O15">
-        <v>10.94890400558821</v>
+        <v>12.58176552654689</v>
       </c>
       <c r="P15">
-        <v>12.84631763726479</v>
+        <v>6.981342312237454</v>
       </c>
       <c r="Q15">
-        <v>15.82645615126605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.85903047832009</v>
+      </c>
+      <c r="R15">
+        <v>12.76327928733576</v>
+      </c>
+      <c r="S15">
+        <v>15.23254840808748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.85418444636001</v>
+        <v>14.55184919534512</v>
       </c>
       <c r="C16">
-        <v>8.109294226040342</v>
+        <v>8.040043001039567</v>
       </c>
       <c r="D16">
-        <v>6.430637255241656</v>
+        <v>6.486869666757793</v>
       </c>
       <c r="E16">
-        <v>8.074673459489992</v>
+        <v>7.946596540589182</v>
       </c>
       <c r="F16">
-        <v>22.01623508533123</v>
+        <v>21.33264900772836</v>
       </c>
       <c r="G16">
-        <v>24.56487105899778</v>
+        <v>23.75118798654286</v>
       </c>
       <c r="I16">
-        <v>3.008634636503944</v>
+        <v>2.919027777913884</v>
       </c>
       <c r="J16">
-        <v>9.573071336438014</v>
+        <v>9.457422069657692</v>
       </c>
       <c r="K16">
-        <v>15.65081709297096</v>
+        <v>15.01770735368994</v>
       </c>
       <c r="L16">
-        <v>5.961466188005255</v>
+        <v>11.91938463610915</v>
       </c>
       <c r="M16">
-        <v>12.26864153249036</v>
+        <v>10.30525525818183</v>
       </c>
       <c r="N16">
-        <v>6.747723830283111</v>
+        <v>5.879646960615586</v>
       </c>
       <c r="O16">
-        <v>10.73983414138983</v>
+        <v>12.26124648931264</v>
       </c>
       <c r="P16">
-        <v>12.94381406356666</v>
+        <v>6.921299812705901</v>
       </c>
       <c r="Q16">
-        <v>15.82461851528799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.6596468022428</v>
+      </c>
+      <c r="R16">
+        <v>12.84753782224644</v>
+      </c>
+      <c r="S16">
+        <v>15.31801621544956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.55423187469362</v>
+        <v>14.26713657945511</v>
       </c>
       <c r="C17">
-        <v>8.048945912975647</v>
+        <v>7.967602244832133</v>
       </c>
       <c r="D17">
-        <v>6.362862393535923</v>
+        <v>6.40553718673804</v>
       </c>
       <c r="E17">
-        <v>8.067600046525374</v>
+        <v>7.936650695813481</v>
       </c>
       <c r="F17">
-        <v>21.94880492535918</v>
+        <v>21.31916505194465</v>
       </c>
       <c r="G17">
-        <v>24.47590744058916</v>
+        <v>23.35747892776874</v>
       </c>
       <c r="I17">
-        <v>3.069788679602893</v>
+        <v>2.972447113061464</v>
       </c>
       <c r="J17">
-        <v>9.589252201721253</v>
+        <v>9.597273716279657</v>
       </c>
       <c r="K17">
-        <v>15.68353132566402</v>
+        <v>15.07704152085827</v>
       </c>
       <c r="L17">
-        <v>5.97415860818348</v>
+        <v>11.99216789163976</v>
       </c>
       <c r="M17">
-        <v>12.04601224991027</v>
+        <v>10.30238390868766</v>
       </c>
       <c r="N17">
-        <v>6.713951881187792</v>
+        <v>5.891696086542213</v>
       </c>
       <c r="O17">
-        <v>10.61009300590333</v>
+        <v>12.05391825550497</v>
       </c>
       <c r="P17">
-        <v>13.00413179816652</v>
+        <v>6.884716210405424</v>
       </c>
       <c r="Q17">
-        <v>15.82570150391676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.53397269724066</v>
+      </c>
+      <c r="R17">
+        <v>12.90063980421213</v>
+      </c>
+      <c r="S17">
+        <v>15.35827757165823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.39201199534807</v>
+        <v>14.10889827882218</v>
       </c>
       <c r="C18">
-        <v>8.005272195289153</v>
+        <v>7.912546401922437</v>
       </c>
       <c r="D18">
-        <v>6.322814263374737</v>
+        <v>6.359578285582429</v>
       </c>
       <c r="E18">
-        <v>8.065565043194187</v>
+        <v>7.933698652624972</v>
       </c>
       <c r="F18">
-        <v>21.92345741403463</v>
+        <v>21.31832117341287</v>
       </c>
       <c r="G18">
-        <v>24.44697842465803</v>
+        <v>23.2077667462432</v>
       </c>
       <c r="I18">
-        <v>3.096394361012786</v>
+        <v>2.993114019536871</v>
       </c>
       <c r="J18">
-        <v>9.602285576947111</v>
+        <v>9.662174989857181</v>
       </c>
       <c r="K18">
-        <v>15.7123276618144</v>
+        <v>15.11768035234012</v>
       </c>
       <c r="L18">
-        <v>5.982031776146795</v>
+        <v>12.03910281144371</v>
       </c>
       <c r="M18">
-        <v>11.91603420463838</v>
+        <v>10.3070583910416</v>
       </c>
       <c r="N18">
-        <v>6.691534620174144</v>
+        <v>5.89913389233497</v>
       </c>
       <c r="O18">
-        <v>10.5361753109753</v>
+        <v>11.9306976205244</v>
       </c>
       <c r="P18">
-        <v>13.03891495265156</v>
+        <v>6.860516972287611</v>
       </c>
       <c r="Q18">
-        <v>15.83565143153305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.46175181888544</v>
+      </c>
+      <c r="R18">
+        <v>12.93129800305512</v>
+      </c>
+      <c r="S18">
+        <v>15.38567748022124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.32896100572117</v>
+        <v>14.04688840046858</v>
       </c>
       <c r="C19">
-        <v>7.99725273921887</v>
+        <v>7.901797373887624</v>
       </c>
       <c r="D19">
-        <v>6.309975875397152</v>
+        <v>6.345074602438372</v>
       </c>
       <c r="E19">
-        <v>8.063519512448604</v>
+        <v>7.93146172746557</v>
       </c>
       <c r="F19">
-        <v>21.90553603230234</v>
+        <v>21.30757045923293</v>
       </c>
       <c r="G19">
-        <v>24.42145850008431</v>
+        <v>23.14998987261109</v>
       </c>
       <c r="I19">
-        <v>3.112344296972936</v>
+        <v>3.008428612111311</v>
       </c>
       <c r="J19">
-        <v>9.604157589833367</v>
+        <v>9.678226599435865</v>
       </c>
       <c r="K19">
-        <v>15.71492555649982</v>
+        <v>15.12399745608474</v>
       </c>
       <c r="L19">
-        <v>5.984308910588505</v>
+        <v>12.04944223461055</v>
       </c>
       <c r="M19">
-        <v>11.87170764501179</v>
+        <v>10.30297424871362</v>
       </c>
       <c r="N19">
-        <v>6.686458024731879</v>
+        <v>5.90129124743298</v>
       </c>
       <c r="O19">
-        <v>10.51011407414019</v>
+        <v>11.88832145285772</v>
       </c>
       <c r="P19">
-        <v>13.0508022968308</v>
+        <v>6.854862234062452</v>
       </c>
       <c r="Q19">
-        <v>15.83257701177799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.43613355805386</v>
+      </c>
+      <c r="R19">
+        <v>12.94202795781397</v>
+      </c>
+      <c r="S19">
+        <v>15.38771847361608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.58664366932811</v>
+        <v>14.29867649586417</v>
       </c>
       <c r="C20">
-        <v>8.054694138770531</v>
+        <v>7.97473454281066</v>
       </c>
       <c r="D20">
-        <v>6.370013875175158</v>
+        <v>6.413932109844906</v>
       </c>
       <c r="E20">
-        <v>8.068471578245372</v>
+        <v>7.937751110623299</v>
       </c>
       <c r="F20">
-        <v>21.95683795733089</v>
+        <v>21.32214280596557</v>
       </c>
       <c r="G20">
-        <v>24.48684388309356</v>
+        <v>23.3951990713133</v>
       </c>
       <c r="I20">
-        <v>3.062517800679774</v>
+        <v>2.965834039284412</v>
       </c>
       <c r="J20">
-        <v>9.587757498112818</v>
+        <v>9.584549589993022</v>
       </c>
       <c r="K20">
-        <v>15.6807259500017</v>
+        <v>15.07170770437832</v>
       </c>
       <c r="L20">
-        <v>5.972842038111239</v>
+        <v>11.98512548354281</v>
       </c>
       <c r="M20">
-        <v>12.06990867553446</v>
+        <v>10.30335343288623</v>
       </c>
       <c r="N20">
-        <v>6.717273131067627</v>
+        <v>5.890447080032443</v>
       </c>
       <c r="O20">
-        <v>10.62405469889637</v>
+        <v>12.07639443837995</v>
       </c>
       <c r="P20">
-        <v>12.99768218814857</v>
+        <v>6.888344082151665</v>
       </c>
       <c r="Q20">
-        <v>15.82617225475336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.54757288553442</v>
+      </c>
+      <c r="R20">
+        <v>12.89490740287485</v>
+      </c>
+      <c r="S20">
+        <v>15.35509796766886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.46397659096794</v>
+        <v>15.09423532341132</v>
       </c>
       <c r="C21">
-        <v>8.23787417197204</v>
+        <v>8.168484724901239</v>
       </c>
       <c r="D21">
-        <v>6.569462855857788</v>
+        <v>6.675168685350647</v>
       </c>
       <c r="E21">
-        <v>8.089440021723485</v>
+        <v>7.975886666920205</v>
       </c>
       <c r="F21">
-        <v>22.15346856183649</v>
+        <v>21.28516621705099</v>
       </c>
       <c r="G21">
-        <v>24.74360791133866</v>
+        <v>25.18453638217083</v>
       </c>
       <c r="I21">
-        <v>2.891892087910401</v>
+        <v>2.82193146161999</v>
       </c>
       <c r="J21">
-        <v>9.539975164589828</v>
+        <v>8.991221765341882</v>
       </c>
       <c r="K21">
-        <v>15.58130665267649</v>
+        <v>14.85844371620826</v>
       </c>
       <c r="L21">
-        <v>5.935457352217192</v>
+        <v>11.74562255263715</v>
       </c>
       <c r="M21">
-        <v>12.7129297214824</v>
+        <v>10.28680999643376</v>
       </c>
       <c r="N21">
-        <v>6.820452699992165</v>
+        <v>5.854782254667508</v>
       </c>
       <c r="O21">
-        <v>11.00161561160047</v>
+        <v>12.65151408036557</v>
       </c>
       <c r="P21">
-        <v>12.82142632131049</v>
+        <v>6.998460552487177</v>
       </c>
       <c r="Q21">
-        <v>15.82200530583648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>10.90567773494779</v>
+      </c>
+      <c r="R21">
+        <v>12.7434586059484</v>
+      </c>
+      <c r="S21">
+        <v>15.17836674932425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.0284879769053</v>
+        <v>15.59994524517202</v>
       </c>
       <c r="C22">
-        <v>8.344040100346971</v>
+        <v>8.275833470901704</v>
       </c>
       <c r="D22">
-        <v>6.697284754927615</v>
+        <v>6.846443022652869</v>
       </c>
       <c r="E22">
-        <v>8.107710309336049</v>
+        <v>8.007440355450003</v>
       </c>
       <c r="F22">
-        <v>22.30903291752004</v>
+        <v>21.27298475607002</v>
       </c>
       <c r="G22">
-        <v>24.95407605210798</v>
+        <v>26.54235363669732</v>
       </c>
       <c r="I22">
-        <v>2.771514969676046</v>
+        <v>2.716471069323899</v>
       </c>
       <c r="J22">
-        <v>9.516807398098971</v>
+        <v>8.649043617593941</v>
       </c>
       <c r="K22">
-        <v>15.53508878605757</v>
+        <v>14.72845493824446</v>
       </c>
       <c r="L22">
-        <v>5.912228483209195</v>
+        <v>11.59940798386872</v>
       </c>
       <c r="M22">
-        <v>13.11606185283074</v>
+        <v>10.29267053045111</v>
       </c>
       <c r="N22">
-        <v>6.885316523363287</v>
+        <v>5.832637588755107</v>
       </c>
       <c r="O22">
-        <v>11.24494741593764</v>
+        <v>13.00869480854403</v>
       </c>
       <c r="P22">
-        <v>12.70759196843954</v>
+        <v>7.067410398139251</v>
       </c>
       <c r="Q22">
-        <v>15.83873710428926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.13480369692895</v>
+      </c>
+      <c r="R22">
+        <v>12.64719475632344</v>
+      </c>
+      <c r="S22">
+        <v>15.06934044075882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.74204711718096</v>
+        <v>15.34973503173431</v>
       </c>
       <c r="C23">
-        <v>8.275908380451902</v>
+        <v>8.212293143391843</v>
       </c>
       <c r="D23">
-        <v>6.627961724563628</v>
+        <v>6.747379550932055</v>
       </c>
       <c r="E23">
-        <v>8.100187294088245</v>
+        <v>7.990189394915967</v>
       </c>
       <c r="F23">
-        <v>22.24146130590323</v>
+        <v>21.31694171064373</v>
       </c>
       <c r="G23">
-        <v>24.86787938740751</v>
+        <v>25.65496355270307</v>
       </c>
       <c r="I23">
-        <v>2.823858839880178</v>
+        <v>2.757958666578787</v>
       </c>
       <c r="J23">
-        <v>9.533396427612733</v>
+        <v>8.876958804230679</v>
       </c>
       <c r="K23">
-        <v>15.57192206687445</v>
+        <v>14.81977907718558</v>
       </c>
       <c r="L23">
-        <v>5.925259612284008</v>
+        <v>11.69192414331822</v>
       </c>
       <c r="M23">
-        <v>12.90245513954602</v>
+        <v>10.30755313809546</v>
       </c>
       <c r="N23">
-        <v>6.846320783545298</v>
+        <v>5.845074432867032</v>
       </c>
       <c r="O23">
-        <v>11.11716264100123</v>
+        <v>12.82636894574095</v>
       </c>
       <c r="P23">
-        <v>12.76793326586881</v>
+        <v>7.026598199561239</v>
       </c>
       <c r="Q23">
-        <v>15.84052781987711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.01681039767591</v>
+      </c>
+      <c r="R23">
+        <v>12.69666171155446</v>
+      </c>
+      <c r="S23">
+        <v>15.15488715901819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.59280940684423</v>
+        <v>14.30527047735231</v>
       </c>
       <c r="C24">
-        <v>8.033549452218507</v>
+        <v>7.948798849370623</v>
       </c>
       <c r="D24">
-        <v>6.364767692381395</v>
+        <v>6.408080077860018</v>
       </c>
       <c r="E24">
-        <v>8.071900579624586</v>
+        <v>7.941080447575506</v>
       </c>
       <c r="F24">
-        <v>21.97929071664112</v>
+        <v>21.34694754727091</v>
       </c>
       <c r="G24">
-        <v>24.52566805660002</v>
+        <v>23.42271832694722</v>
       </c>
       <c r="I24">
-        <v>3.047584205065506</v>
+        <v>2.947112706864368</v>
       </c>
       <c r="J24">
-        <v>9.595569321894837</v>
+        <v>9.597187189286981</v>
       </c>
       <c r="K24">
-        <v>15.70190429890628</v>
+        <v>15.09334151370848</v>
       </c>
       <c r="L24">
-        <v>5.974526805565196</v>
+        <v>12.00252220524362</v>
       </c>
       <c r="M24">
-        <v>12.05908470883766</v>
+        <v>10.31827937957305</v>
       </c>
       <c r="N24">
-        <v>6.709002833924374</v>
+        <v>5.892011830953706</v>
       </c>
       <c r="O24">
-        <v>10.62032999159058</v>
+        <v>12.06618764707892</v>
       </c>
       <c r="P24">
-        <v>13.00036252355225</v>
+        <v>6.879818981983203</v>
       </c>
       <c r="Q24">
-        <v>15.84400081808555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.54406451752917</v>
+      </c>
+      <c r="R24">
+        <v>12.89669931467531</v>
+      </c>
+      <c r="S24">
+        <v>15.37443420237998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.30167073681447</v>
+        <v>13.0123766568365</v>
       </c>
       <c r="C25">
-        <v>7.765374682834331</v>
+        <v>7.567671238481649</v>
       </c>
       <c r="D25">
-        <v>6.076767391102317</v>
+        <v>6.109183870374409</v>
       </c>
       <c r="E25">
-        <v>8.050155274527123</v>
+        <v>7.924155759664045</v>
       </c>
       <c r="F25">
-        <v>21.73930921871097</v>
+        <v>21.17822911000891</v>
       </c>
       <c r="G25">
-        <v>24.21662083137501</v>
+        <v>23.08478279999918</v>
       </c>
       <c r="I25">
-        <v>3.303220444371797</v>
+        <v>3.174544144175333</v>
       </c>
       <c r="J25">
-        <v>9.676438988937996</v>
+        <v>9.70429862017096</v>
       </c>
       <c r="K25">
-        <v>15.86506829921324</v>
+        <v>15.29379781948541</v>
       </c>
       <c r="L25">
-        <v>6.029909196383252</v>
+        <v>12.27359883504461</v>
       </c>
       <c r="M25">
-        <v>11.07628038091645</v>
+        <v>10.30108250916387</v>
       </c>
       <c r="N25">
-        <v>6.568840329069108</v>
+        <v>5.943997339949973</v>
       </c>
       <c r="O25">
-        <v>10.06500021087075</v>
+        <v>11.09694520467669</v>
       </c>
       <c r="P25">
-        <v>13.2585692485537</v>
+        <v>6.725442546042296</v>
       </c>
       <c r="Q25">
-        <v>15.87890721308163</v>
+        <v>9.989780370706061</v>
+      </c>
+      <c r="R25">
+        <v>13.12990567304613</v>
+      </c>
+      <c r="S25">
+        <v>15.45579539894996</v>
       </c>
     </row>
   </sheetData>
